--- a/Code/Results/Cases/Case_3_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.25481022300815</v>
+        <v>25.25481022300806</v>
       </c>
       <c r="C2">
-        <v>18.66059745974527</v>
+        <v>18.66059745974528</v>
       </c>
       <c r="D2">
-        <v>3.387126543708305</v>
+        <v>3.38712654370838</v>
       </c>
       <c r="F2">
-        <v>33.87728072179407</v>
+        <v>33.87728072179419</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -438,16 +438,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.44989253795603</v>
+        <v>23.44989253795609</v>
       </c>
       <c r="C3">
-        <v>17.36110835746581</v>
+        <v>17.36110835746573</v>
       </c>
       <c r="D3">
-        <v>3.50998250104549</v>
+        <v>3.509982501045502</v>
       </c>
       <c r="F3">
-        <v>32.03781762462846</v>
+        <v>32.03781762462853</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -464,16 +464,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.28636676894255</v>
+        <v>22.2863667689426</v>
       </c>
       <c r="C4">
-        <v>16.52386683689553</v>
+        <v>16.52386683689551</v>
       </c>
       <c r="D4">
-        <v>3.588543718915647</v>
+        <v>3.588543718915767</v>
       </c>
       <c r="F4">
-        <v>30.91612277426863</v>
+        <v>30.91612277426846</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -490,16 +490,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.7980385393256</v>
+        <v>21.79803853932557</v>
       </c>
       <c r="C5">
-        <v>16.17259130565477</v>
+        <v>16.17259130565483</v>
       </c>
       <c r="D5">
-        <v>3.621274424691405</v>
+        <v>3.621274424691146</v>
       </c>
       <c r="F5">
-        <v>30.4612433134242</v>
+        <v>30.46124331342418</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -516,10 +516,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.71608774606415</v>
+        <v>21.71608774606418</v>
       </c>
       <c r="C6">
-        <v>16.11364725053398</v>
+        <v>16.11364725053393</v>
       </c>
       <c r="D6">
         <v>3.626750882370703</v>
@@ -542,16 +542,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.27983877753976</v>
+        <v>22.27983877753978</v>
       </c>
       <c r="C7">
-        <v>16.51917052636466</v>
+        <v>16.51917052636462</v>
       </c>
       <c r="D7">
-        <v>3.588982315867822</v>
+        <v>3.588982315867819</v>
       </c>
       <c r="F7">
-        <v>30.90997867802555</v>
+        <v>30.90997867802552</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -568,16 +568,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.64377856619502</v>
+        <v>24.64377856619495</v>
       </c>
       <c r="C8">
-        <v>18.22057552896142</v>
+        <v>18.22057552896154</v>
       </c>
       <c r="D8">
-        <v>3.428790174113692</v>
+        <v>3.428790174113563</v>
       </c>
       <c r="F8">
-        <v>33.24155385013952</v>
+        <v>33.24155385013943</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -594,16 +594,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.85441680798467</v>
+        <v>28.85441680798477</v>
       </c>
       <c r="C9">
-        <v>21.25482247139172</v>
+        <v>21.25482247139169</v>
       </c>
       <c r="D9">
-        <v>3.143821928634023</v>
+        <v>3.143821928634032</v>
       </c>
       <c r="F9">
-        <v>37.87008265402604</v>
+        <v>37.87008265402616</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -620,16 +620,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.71028446249172</v>
+        <v>31.71028446249177</v>
       </c>
       <c r="C10">
         <v>23.31574238945279</v>
       </c>
       <c r="D10">
-        <v>2.960859841079022</v>
+        <v>2.960859841079122</v>
       </c>
       <c r="F10">
-        <v>41.30973800617608</v>
+        <v>41.30973800617596</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -646,16 +646,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.96344135123201</v>
+        <v>32.96344135123196</v>
       </c>
       <c r="C11">
-        <v>24.22094469959428</v>
+        <v>24.22094469959426</v>
       </c>
       <c r="D11">
-        <v>2.886289763078342</v>
+        <v>2.886289763078359</v>
       </c>
       <c r="F11">
-        <v>43.00531318153985</v>
+        <v>43.00531318153973</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -672,16 +672,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.431908229844</v>
+        <v>33.43190822984381</v>
       </c>
       <c r="C12">
-        <v>24.55948667696504</v>
+        <v>24.55948667696498</v>
       </c>
       <c r="D12">
-        <v>2.859643545833255</v>
+        <v>2.859643545833282</v>
       </c>
       <c r="F12">
-        <v>43.65376201626562</v>
+        <v>43.6537620162652</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -698,16 +698,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.33127631472234</v>
+        <v>33.33127631472229</v>
       </c>
       <c r="C13">
-        <v>24.48675688819796</v>
+        <v>24.48675688819781</v>
       </c>
       <c r="D13">
-        <v>2.865304899962262</v>
+        <v>2.865304899962239</v>
       </c>
       <c r="F13">
-        <v>43.51408672110813</v>
+        <v>43.51408672110794</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.00210081378408</v>
+        <v>33.00210081378411</v>
       </c>
       <c r="C14">
-        <v>24.24887911947868</v>
+        <v>24.24887911947872</v>
       </c>
       <c r="D14">
         <v>2.884063321092272</v>
@@ -753,13 +753,13 @@
         <v>32.79969731900738</v>
       </c>
       <c r="C15">
-        <v>24.10263339712159</v>
+        <v>24.10263339712137</v>
       </c>
       <c r="D15">
-        <v>2.895772666434515</v>
+        <v>2.895772666434469</v>
       </c>
       <c r="F15">
-        <v>42.77973044096396</v>
+        <v>42.77973044096409</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -776,16 +776,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.62750635113333</v>
+        <v>31.62750635113328</v>
       </c>
       <c r="C16">
-        <v>23.25596845395269</v>
+        <v>23.25596845395266</v>
       </c>
       <c r="D16">
-        <v>2.965934884498658</v>
+        <v>2.96593488449868</v>
       </c>
       <c r="F16">
-        <v>41.20693145563558</v>
+        <v>41.20693145563533</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -802,16 +802,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.89698335400156</v>
+        <v>30.89698335400157</v>
       </c>
       <c r="C17">
-        <v>22.72856052522051</v>
+        <v>22.72856052522052</v>
       </c>
       <c r="D17">
-        <v>3.01141240887196</v>
+        <v>3.011412408871946</v>
       </c>
       <c r="F17">
-        <v>40.30750121623775</v>
+        <v>40.3075012162377</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.4724404910505</v>
+        <v>30.47244049105052</v>
       </c>
       <c r="C18">
-        <v>22.42213938117141</v>
+        <v>22.42213938117148</v>
       </c>
       <c r="D18">
-        <v>3.038359162734393</v>
+        <v>3.038359162734477</v>
       </c>
       <c r="F18">
-        <v>39.79136724802777</v>
+        <v>39.79136724802792</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -854,16 +854,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.32793272283033</v>
+        <v>30.3279327228302</v>
       </c>
       <c r="C19">
-        <v>22.31785170878366</v>
+        <v>22.31785170878385</v>
       </c>
       <c r="D19">
-        <v>3.047609404594651</v>
+        <v>3.047609404594853</v>
       </c>
       <c r="F19">
-        <v>39.61680211975192</v>
+        <v>39.61680211975175</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.97519693399731</v>
+        <v>30.97519693399732</v>
       </c>
       <c r="C20">
-        <v>22.78501897614901</v>
+        <v>22.78501897614905</v>
       </c>
       <c r="D20">
-        <v>3.006487355827938</v>
+        <v>3.006487355827825</v>
       </c>
       <c r="F20">
-        <v>40.40311946807743</v>
+        <v>40.40311946807716</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.09894786017456</v>
+        <v>33.09894786017446</v>
       </c>
       <c r="C21">
-        <v>24.31886103011814</v>
+        <v>24.31886103011812</v>
       </c>
       <c r="D21">
-        <v>2.878507060770607</v>
+        <v>2.878507060770596</v>
       </c>
       <c r="F21">
-        <v>43.19241487823545</v>
+        <v>43.19241487823552</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -932,16 +932,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.45183610477582</v>
+        <v>34.45183610477583</v>
       </c>
       <c r="C22">
-        <v>25.29685051337985</v>
+        <v>25.29685051337995</v>
       </c>
       <c r="D22">
-        <v>2.804379563319165</v>
+        <v>2.804379563319225</v>
       </c>
       <c r="F22">
-        <v>45.08104554993844</v>
+        <v>45.08104554993867</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -958,16 +958,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.73278644564067</v>
+        <v>33.73278644564066</v>
       </c>
       <c r="C23">
         <v>24.77696456827663</v>
       </c>
       <c r="D23">
-        <v>2.842930753490219</v>
+        <v>2.842930753490109</v>
       </c>
       <c r="F23">
-        <v>44.07261255169502</v>
+        <v>44.07261255169486</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.93985080309055</v>
+        <v>30.93985080309071</v>
       </c>
       <c r="C24">
-        <v>22.75950413039903</v>
+        <v>22.75950413039898</v>
       </c>
       <c r="D24">
-        <v>3.008711501862479</v>
+        <v>3.008711501862326</v>
       </c>
       <c r="F24">
-        <v>40.35988751113182</v>
+        <v>40.35988751113196</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1010,16 +1010,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.75876708949629</v>
+        <v>27.75876708949632</v>
       </c>
       <c r="C25">
-        <v>20.46481196187275</v>
+        <v>20.46481196187274</v>
       </c>
       <c r="D25">
-        <v>3.217059874139153</v>
+        <v>3.217059874139168</v>
       </c>
       <c r="F25">
-        <v>36.61203232982453</v>
+        <v>36.61203232982459</v>
       </c>
       <c r="G25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.25481022300806</v>
+        <v>25.25481022300815</v>
       </c>
       <c r="C2">
-        <v>18.66059745974528</v>
+        <v>18.66059745974527</v>
       </c>
       <c r="D2">
-        <v>3.38712654370838</v>
+        <v>3.387126543708305</v>
       </c>
       <c r="F2">
-        <v>33.87728072179419</v>
+        <v>33.87728072179407</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -438,16 +438,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.44989253795609</v>
+        <v>23.44989253795603</v>
       </c>
       <c r="C3">
-        <v>17.36110835746573</v>
+        <v>17.36110835746581</v>
       </c>
       <c r="D3">
-        <v>3.509982501045502</v>
+        <v>3.50998250104549</v>
       </c>
       <c r="F3">
-        <v>32.03781762462853</v>
+        <v>32.03781762462846</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -464,16 +464,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.2863667689426</v>
+        <v>22.28636676894255</v>
       </c>
       <c r="C4">
-        <v>16.52386683689551</v>
+        <v>16.52386683689553</v>
       </c>
       <c r="D4">
-        <v>3.588543718915767</v>
+        <v>3.588543718915647</v>
       </c>
       <c r="F4">
-        <v>30.91612277426846</v>
+        <v>30.91612277426863</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -490,16 +490,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.79803853932557</v>
+        <v>21.7980385393256</v>
       </c>
       <c r="C5">
-        <v>16.17259130565483</v>
+        <v>16.17259130565477</v>
       </c>
       <c r="D5">
-        <v>3.621274424691146</v>
+        <v>3.621274424691405</v>
       </c>
       <c r="F5">
-        <v>30.46124331342418</v>
+        <v>30.4612433134242</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -516,10 +516,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.71608774606418</v>
+        <v>21.71608774606415</v>
       </c>
       <c r="C6">
-        <v>16.11364725053393</v>
+        <v>16.11364725053398</v>
       </c>
       <c r="D6">
         <v>3.626750882370703</v>
@@ -542,16 +542,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.27983877753978</v>
+        <v>22.27983877753976</v>
       </c>
       <c r="C7">
-        <v>16.51917052636462</v>
+        <v>16.51917052636466</v>
       </c>
       <c r="D7">
-        <v>3.588982315867819</v>
+        <v>3.588982315867822</v>
       </c>
       <c r="F7">
-        <v>30.90997867802552</v>
+        <v>30.90997867802555</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -568,16 +568,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.64377856619495</v>
+        <v>24.64377856619502</v>
       </c>
       <c r="C8">
-        <v>18.22057552896154</v>
+        <v>18.22057552896142</v>
       </c>
       <c r="D8">
-        <v>3.428790174113563</v>
+        <v>3.428790174113692</v>
       </c>
       <c r="F8">
-        <v>33.24155385013943</v>
+        <v>33.24155385013952</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -594,16 +594,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.85441680798477</v>
+        <v>28.85441680798467</v>
       </c>
       <c r="C9">
-        <v>21.25482247139169</v>
+        <v>21.25482247139172</v>
       </c>
       <c r="D9">
-        <v>3.143821928634032</v>
+        <v>3.143821928634023</v>
       </c>
       <c r="F9">
-        <v>37.87008265402616</v>
+        <v>37.87008265402604</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -620,16 +620,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.71028446249177</v>
+        <v>31.71028446249172</v>
       </c>
       <c r="C10">
         <v>23.31574238945279</v>
       </c>
       <c r="D10">
-        <v>2.960859841079122</v>
+        <v>2.960859841079022</v>
       </c>
       <c r="F10">
-        <v>41.30973800617596</v>
+        <v>41.30973800617608</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -646,16 +646,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.96344135123196</v>
+        <v>32.96344135123201</v>
       </c>
       <c r="C11">
-        <v>24.22094469959426</v>
+        <v>24.22094469959428</v>
       </c>
       <c r="D11">
-        <v>2.886289763078359</v>
+        <v>2.886289763078342</v>
       </c>
       <c r="F11">
-        <v>43.00531318153973</v>
+        <v>43.00531318153985</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -672,16 +672,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.43190822984381</v>
+        <v>33.431908229844</v>
       </c>
       <c r="C12">
-        <v>24.55948667696498</v>
+        <v>24.55948667696504</v>
       </c>
       <c r="D12">
-        <v>2.859643545833282</v>
+        <v>2.859643545833255</v>
       </c>
       <c r="F12">
-        <v>43.6537620162652</v>
+        <v>43.65376201626562</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -698,16 +698,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.33127631472229</v>
+        <v>33.33127631472234</v>
       </c>
       <c r="C13">
-        <v>24.48675688819781</v>
+        <v>24.48675688819796</v>
       </c>
       <c r="D13">
-        <v>2.865304899962239</v>
+        <v>2.865304899962262</v>
       </c>
       <c r="F13">
-        <v>43.51408672110794</v>
+        <v>43.51408672110813</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.00210081378411</v>
+        <v>33.00210081378408</v>
       </c>
       <c r="C14">
-        <v>24.24887911947872</v>
+        <v>24.24887911947868</v>
       </c>
       <c r="D14">
         <v>2.884063321092272</v>
@@ -753,13 +753,13 @@
         <v>32.79969731900738</v>
       </c>
       <c r="C15">
-        <v>24.10263339712137</v>
+        <v>24.10263339712159</v>
       </c>
       <c r="D15">
-        <v>2.895772666434469</v>
+        <v>2.895772666434515</v>
       </c>
       <c r="F15">
-        <v>42.77973044096409</v>
+        <v>42.77973044096396</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -776,16 +776,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.62750635113328</v>
+        <v>31.62750635113333</v>
       </c>
       <c r="C16">
-        <v>23.25596845395266</v>
+        <v>23.25596845395269</v>
       </c>
       <c r="D16">
-        <v>2.96593488449868</v>
+        <v>2.965934884498658</v>
       </c>
       <c r="F16">
-        <v>41.20693145563533</v>
+        <v>41.20693145563558</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -802,16 +802,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.89698335400157</v>
+        <v>30.89698335400156</v>
       </c>
       <c r="C17">
-        <v>22.72856052522052</v>
+        <v>22.72856052522051</v>
       </c>
       <c r="D17">
-        <v>3.011412408871946</v>
+        <v>3.01141240887196</v>
       </c>
       <c r="F17">
-        <v>40.3075012162377</v>
+        <v>40.30750121623775</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.47244049105052</v>
+        <v>30.4724404910505</v>
       </c>
       <c r="C18">
-        <v>22.42213938117148</v>
+        <v>22.42213938117141</v>
       </c>
       <c r="D18">
-        <v>3.038359162734477</v>
+        <v>3.038359162734393</v>
       </c>
       <c r="F18">
-        <v>39.79136724802792</v>
+        <v>39.79136724802777</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -854,16 +854,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.3279327228302</v>
+        <v>30.32793272283033</v>
       </c>
       <c r="C19">
-        <v>22.31785170878385</v>
+        <v>22.31785170878366</v>
       </c>
       <c r="D19">
-        <v>3.047609404594853</v>
+        <v>3.047609404594651</v>
       </c>
       <c r="F19">
-        <v>39.61680211975175</v>
+        <v>39.61680211975192</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.97519693399732</v>
+        <v>30.97519693399731</v>
       </c>
       <c r="C20">
-        <v>22.78501897614905</v>
+        <v>22.78501897614901</v>
       </c>
       <c r="D20">
-        <v>3.006487355827825</v>
+        <v>3.006487355827938</v>
       </c>
       <c r="F20">
-        <v>40.40311946807716</v>
+        <v>40.40311946807743</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.09894786017446</v>
+        <v>33.09894786017456</v>
       </c>
       <c r="C21">
-        <v>24.31886103011812</v>
+        <v>24.31886103011814</v>
       </c>
       <c r="D21">
-        <v>2.878507060770596</v>
+        <v>2.878507060770607</v>
       </c>
       <c r="F21">
-        <v>43.19241487823552</v>
+        <v>43.19241487823545</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -932,16 +932,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.45183610477583</v>
+        <v>34.45183610477582</v>
       </c>
       <c r="C22">
-        <v>25.29685051337995</v>
+        <v>25.29685051337985</v>
       </c>
       <c r="D22">
-        <v>2.804379563319225</v>
+        <v>2.804379563319165</v>
       </c>
       <c r="F22">
-        <v>45.08104554993867</v>
+        <v>45.08104554993844</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -958,16 +958,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.73278644564066</v>
+        <v>33.73278644564067</v>
       </c>
       <c r="C23">
         <v>24.77696456827663</v>
       </c>
       <c r="D23">
-        <v>2.842930753490109</v>
+        <v>2.842930753490219</v>
       </c>
       <c r="F23">
-        <v>44.07261255169486</v>
+        <v>44.07261255169502</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.93985080309071</v>
+        <v>30.93985080309055</v>
       </c>
       <c r="C24">
-        <v>22.75950413039898</v>
+        <v>22.75950413039903</v>
       </c>
       <c r="D24">
-        <v>3.008711501862326</v>
+        <v>3.008711501862479</v>
       </c>
       <c r="F24">
-        <v>40.35988751113196</v>
+        <v>40.35988751113182</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1010,16 +1010,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.75876708949632</v>
+        <v>27.75876708949629</v>
       </c>
       <c r="C25">
-        <v>20.46481196187274</v>
+        <v>20.46481196187275</v>
       </c>
       <c r="D25">
-        <v>3.217059874139168</v>
+        <v>3.217059874139153</v>
       </c>
       <c r="F25">
-        <v>36.61203232982459</v>
+        <v>36.61203232982453</v>
       </c>
       <c r="G25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,628 +406,703 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.25481022300815</v>
+        <v>25.12066508047205</v>
       </c>
       <c r="C2">
-        <v>18.66059745974527</v>
+        <v>18.5071763673947</v>
       </c>
       <c r="D2">
-        <v>3.387126543708305</v>
+        <v>3.553898362447192</v>
       </c>
       <c r="F2">
-        <v>33.87728072179407</v>
+        <v>34.02244805858475</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.051122619213306</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.44989253795603</v>
+        <v>23.32294356700521</v>
       </c>
       <c r="C3">
-        <v>17.36110835746581</v>
+        <v>17.21087892886637</v>
       </c>
       <c r="D3">
-        <v>3.50998250104549</v>
+        <v>3.679471898860305</v>
       </c>
       <c r="F3">
-        <v>32.03781762462846</v>
+        <v>32.23415050789158</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.063671027823776</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.28636676894255</v>
+        <v>22.16404985398542</v>
       </c>
       <c r="C4">
-        <v>16.52386683689553</v>
+        <v>16.37545588287091</v>
       </c>
       <c r="D4">
-        <v>3.588543718915647</v>
+        <v>3.759503404831402</v>
       </c>
       <c r="F4">
-        <v>30.91612277426863</v>
+        <v>31.14658319201867</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.071507428230482</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.7980385393256</v>
+        <v>21.67766943158848</v>
       </c>
       <c r="C5">
-        <v>16.17259130565477</v>
+        <v>16.02488370029546</v>
       </c>
       <c r="D5">
-        <v>3.621274424691405</v>
+        <v>3.792794968854264</v>
       </c>
       <c r="F5">
-        <v>30.4612433134242</v>
+        <v>30.70628172688158</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.074737947957457</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.71608774606415</v>
+        <v>21.59604590236444</v>
       </c>
       <c r="C6">
-        <v>16.11364725053398</v>
+        <v>15.96605406594508</v>
       </c>
       <c r="D6">
-        <v>3.626750882370703</v>
+        <v>3.798362538024389</v>
       </c>
       <c r="F6">
-        <v>30.38585515138013</v>
+        <v>30.63335419682902</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.075276726001995</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.27983877753976</v>
+        <v>22.15754787882371</v>
       </c>
       <c r="C7">
-        <v>16.51917052636466</v>
+        <v>16.37076921455019</v>
       </c>
       <c r="D7">
-        <v>3.588982315867822</v>
+        <v>3.759949707178382</v>
       </c>
       <c r="F7">
-        <v>30.90997867802555</v>
+        <v>31.14063300677182</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.071550840791237</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.64377856619502</v>
+        <v>24.51207418911761</v>
       </c>
       <c r="C8">
-        <v>18.22057552896142</v>
+        <v>18.06828337257622</v>
       </c>
       <c r="D8">
-        <v>3.428790174113692</v>
+        <v>3.596547931528959</v>
       </c>
       <c r="F8">
-        <v>33.24155385013952</v>
+        <v>33.40379692199335</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.055424538319931</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.85441680798467</v>
+        <v>28.70565874362179</v>
       </c>
       <c r="C9">
-        <v>21.25482247139172</v>
+        <v>21.0938011906883</v>
       </c>
       <c r="D9">
-        <v>3.143821928634023</v>
+        <v>3.303033518747218</v>
       </c>
       <c r="F9">
-        <v>37.87008265402604</v>
+        <v>37.91964836802475</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.024640570915212</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.71028446249172</v>
+        <v>31.54943156856648</v>
       </c>
       <c r="C10">
-        <v>23.31574238945279</v>
+        <v>23.14756063989137</v>
       </c>
       <c r="D10">
-        <v>2.960859841079022</v>
+        <v>3.111160900277153</v>
       </c>
       <c r="F10">
-        <v>41.30973800617608</v>
+        <v>41.28892695156154</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.002207640482523</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.96344135123201</v>
+        <v>32.79707246070618</v>
       </c>
       <c r="C11">
-        <v>24.22094469959428</v>
+        <v>24.04929482422328</v>
       </c>
       <c r="D11">
-        <v>2.886289763078342</v>
+        <v>3.031572387223408</v>
       </c>
       <c r="F11">
-        <v>43.00531318153985</v>
+        <v>42.87531494114123</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.991954538386618</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.431908229844</v>
+        <v>33.26343758473487</v>
       </c>
       <c r="C12">
-        <v>24.55948667696504</v>
+        <v>24.38648672549967</v>
       </c>
       <c r="D12">
-        <v>2.859643545833255</v>
+        <v>3.002844237690835</v>
       </c>
       <c r="F12">
-        <v>43.65376201626562</v>
+        <v>43.51406593954564</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.988056249946762</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.33127631472234</v>
+        <v>33.1632590949588</v>
       </c>
       <c r="C13">
-        <v>24.48675688819796</v>
+        <v>24.31404946246919</v>
       </c>
       <c r="D13">
-        <v>2.865304899962262</v>
+        <v>3.008962819814814</v>
       </c>
       <c r="F13">
-        <v>43.51408672110813</v>
+        <v>43.3764675626062</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.988896667407955</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.00210081378408</v>
+        <v>32.8355593410766</v>
       </c>
       <c r="C14">
-        <v>24.24887911947868</v>
+        <v>24.0771189545627</v>
       </c>
       <c r="D14">
-        <v>2.884063321092272</v>
+        <v>3.029178577428114</v>
       </c>
       <c r="F14">
-        <v>43.05865378080738</v>
+        <v>42.92785236076713</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.991634192930609</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.79969731900738</v>
+        <v>32.63405773330385</v>
       </c>
       <c r="C15">
-        <v>24.10263339712159</v>
+        <v>23.93144843800033</v>
       </c>
       <c r="D15">
-        <v>2.895772666434515</v>
+        <v>3.041755524138936</v>
       </c>
       <c r="F15">
-        <v>42.77973044096396</v>
+        <v>42.653140085064</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.9933086830269</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.62750635113333</v>
+        <v>31.46701276973562</v>
       </c>
       <c r="C16">
-        <v>23.25596845395269</v>
+        <v>23.08800861018763</v>
       </c>
       <c r="D16">
-        <v>2.965934884498658</v>
+        <v>3.116541026544002</v>
       </c>
       <c r="F16">
-        <v>41.20693145563558</v>
+        <v>41.18810170100382</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.002876020472171</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.89698335400156</v>
+        <v>30.73963593102726</v>
       </c>
       <c r="C17">
-        <v>22.72856052522051</v>
+        <v>22.56252127075084</v>
       </c>
       <c r="D17">
-        <v>3.01141240887196</v>
+        <v>3.1645798395417</v>
       </c>
       <c r="F17">
-        <v>40.30750121623775</v>
+        <v>40.30629889416075</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.008727143488856</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.4724404910505</v>
+        <v>30.31690209680231</v>
       </c>
       <c r="C18">
-        <v>22.42213938117141</v>
+        <v>22.25718546384069</v>
       </c>
       <c r="D18">
-        <v>3.038359162734393</v>
+        <v>3.192912020132321</v>
       </c>
       <c r="F18">
-        <v>39.79136724802777</v>
+        <v>39.80053138234497</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.012088611585668</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.32793272283033</v>
+        <v>30.1730070395622</v>
       </c>
       <c r="C19">
-        <v>22.31785170878366</v>
+        <v>22.15326210914901</v>
       </c>
       <c r="D19">
-        <v>3.047609404594651</v>
+        <v>3.20261743665471</v>
       </c>
       <c r="F19">
-        <v>39.61680211975192</v>
+        <v>39.62951616827468</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.013226312807453</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.97519693399731</v>
+        <v>30.81751472760222</v>
       </c>
       <c r="C20">
-        <v>22.78501897614901</v>
+        <v>22.61877731264721</v>
       </c>
       <c r="D20">
-        <v>3.006487355827938</v>
+        <v>3.159391498569173</v>
       </c>
       <c r="F20">
-        <v>40.40311946807743</v>
+        <v>40.40001733984037</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.008104748227202</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.09894786017456</v>
+        <v>32.93197337489588</v>
       </c>
       <c r="C21">
-        <v>24.31886103011814</v>
+        <v>24.14682369244333</v>
       </c>
       <c r="D21">
-        <v>2.878507060770607</v>
+        <v>3.023199572656339</v>
       </c>
       <c r="F21">
-        <v>43.19241487823545</v>
+        <v>43.05960371131711</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.990830617194917</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.45183610477582</v>
+        <v>34.27870618316622</v>
       </c>
       <c r="C22">
-        <v>25.29685051337985</v>
+        <v>25.12080630429581</v>
       </c>
       <c r="D22">
-        <v>2.804379563319165</v>
+        <v>2.942621195527505</v>
       </c>
       <c r="F22">
-        <v>45.08104554993844</v>
+        <v>44.92047478392356</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.979444515996814</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.73278644564067</v>
+        <v>33.56295356486633</v>
       </c>
       <c r="C23">
-        <v>24.77696456827663</v>
+        <v>24.60308169656263</v>
       </c>
       <c r="D23">
-        <v>2.842930753490219</v>
+        <v>2.984730856311247</v>
       </c>
       <c r="F23">
-        <v>44.07261255169502</v>
+        <v>43.92672621178762</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.985533600783992</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.93985080309055</v>
+        <v>30.78231995068171</v>
       </c>
       <c r="C24">
-        <v>22.75950413039903</v>
+        <v>22.59335403424103</v>
       </c>
       <c r="D24">
-        <v>3.008711501862479</v>
+        <v>3.161734945219052</v>
       </c>
       <c r="F24">
-        <v>40.35988751113182</v>
+        <v>40.35764355953138</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.008386140027715</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.75876708949629</v>
+        <v>27.61451343611825</v>
       </c>
       <c r="C25">
-        <v>20.46481196187275</v>
+        <v>20.30627239687806</v>
       </c>
       <c r="D25">
-        <v>3.217059874139153</v>
+        <v>3.378935273910891</v>
       </c>
       <c r="F25">
-        <v>36.61203232982453</v>
+        <v>36.68982221908249</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.032909719090586</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="J25">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.12066508047205</v>
+        <v>25.12066508047191</v>
       </c>
       <c r="C2">
-        <v>18.5071763673947</v>
+        <v>18.50717636739437</v>
       </c>
       <c r="D2">
-        <v>3.553898362447192</v>
+        <v>3.553898362447425</v>
       </c>
       <c r="F2">
-        <v>34.02244805858475</v>
+        <v>34.02244805858472</v>
       </c>
       <c r="G2">
-        <v>2.051122619213306</v>
+        <v>2.051122619213445</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -438,25 +444,31 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.32294356700521</v>
+        <v>23.32294356700523</v>
       </c>
       <c r="C3">
-        <v>17.21087892886637</v>
+        <v>17.21087892886645</v>
       </c>
       <c r="D3">
-        <v>3.679471898860305</v>
+        <v>3.679471898860492</v>
       </c>
       <c r="F3">
-        <v>32.23415050789158</v>
+        <v>32.23415050789144</v>
       </c>
       <c r="G3">
-        <v>2.063671027823776</v>
+        <v>2.063671027823775</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -467,25 +479,31 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.16404985398542</v>
+        <v>22.16404985398544</v>
       </c>
       <c r="C4">
-        <v>16.37545588287091</v>
+        <v>16.37545588287079</v>
       </c>
       <c r="D4">
-        <v>3.759503404831402</v>
+        <v>3.759503404831629</v>
       </c>
       <c r="F4">
-        <v>31.14658319201867</v>
+        <v>31.14658319201853</v>
       </c>
       <c r="G4">
-        <v>2.071507428230482</v>
+        <v>2.071507428230488</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -496,25 +514,31 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.67766943158848</v>
+        <v>21.6776694315884</v>
       </c>
       <c r="C5">
-        <v>16.02488370029546</v>
+        <v>16.02488370029545</v>
       </c>
       <c r="D5">
-        <v>3.792794968854264</v>
+        <v>3.792794968854198</v>
       </c>
       <c r="F5">
-        <v>30.70628172688158</v>
+        <v>30.70628172688164</v>
       </c>
       <c r="G5">
-        <v>2.074737947957457</v>
+        <v>2.07473794795759</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -525,25 +549,31 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.59604590236444</v>
+        <v>21.59604590236438</v>
       </c>
       <c r="C6">
-        <v>15.96605406594508</v>
+        <v>15.96605406594502</v>
       </c>
       <c r="D6">
-        <v>3.798362538024389</v>
+        <v>3.798362538024317</v>
       </c>
       <c r="F6">
-        <v>30.63335419682902</v>
+        <v>30.63335419682886</v>
       </c>
       <c r="G6">
-        <v>2.075276726001995</v>
+        <v>2.07527672600186</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -554,25 +584,31 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.15754787882371</v>
+        <v>22.15754787882374</v>
       </c>
       <c r="C7">
-        <v>16.37076921455019</v>
+        <v>16.3707692145503</v>
       </c>
       <c r="D7">
-        <v>3.759949707178382</v>
+        <v>3.759949707178304</v>
       </c>
       <c r="F7">
-        <v>31.14063300677182</v>
+        <v>31.14063300677173</v>
       </c>
       <c r="G7">
-        <v>2.071550840791237</v>
+        <v>2.071550840791371</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -583,25 +619,31 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.51207418911761</v>
+        <v>24.51207418911754</v>
       </c>
       <c r="C8">
-        <v>18.06828337257622</v>
+        <v>18.06828337257613</v>
       </c>
       <c r="D8">
         <v>3.596547931528959</v>
       </c>
       <c r="F8">
-        <v>33.40379692199335</v>
+        <v>33.40379692199348</v>
       </c>
       <c r="G8">
-        <v>2.055424538319931</v>
+        <v>2.055424538320199</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -612,25 +654,31 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.70565874362179</v>
+        <v>28.70565874362181</v>
       </c>
       <c r="C9">
-        <v>21.0938011906883</v>
+        <v>21.09380119068824</v>
       </c>
       <c r="D9">
-        <v>3.303033518747218</v>
+        <v>3.303033518747219</v>
       </c>
       <c r="F9">
-        <v>37.91964836802475</v>
+        <v>37.91964836802479</v>
       </c>
       <c r="G9">
-        <v>2.024640570915212</v>
+        <v>2.024640570915209</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -641,19 +689,25 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.54943156856648</v>
+        <v>31.54943156856661</v>
       </c>
       <c r="C10">
-        <v>23.14756063989137</v>
+        <v>23.14756063989129</v>
       </c>
       <c r="D10">
-        <v>3.111160900277153</v>
+        <v>3.11116090027705</v>
       </c>
       <c r="F10">
         <v>41.28892695156154</v>
@@ -670,25 +724,31 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.79707246070618</v>
+        <v>32.79707246070613</v>
       </c>
       <c r="C11">
-        <v>24.04929482422328</v>
+        <v>24.04929482422331</v>
       </c>
       <c r="D11">
-        <v>3.031572387223408</v>
+        <v>3.03157238722357</v>
       </c>
       <c r="F11">
-        <v>42.87531494114123</v>
+        <v>42.87531494114132</v>
       </c>
       <c r="G11">
-        <v>1.991954538386618</v>
+        <v>1.991954538386483</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -699,25 +759,31 @@
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.26343758473487</v>
+        <v>33.26343758473495</v>
       </c>
       <c r="C12">
-        <v>24.38648672549967</v>
+        <v>24.38648672549973</v>
       </c>
       <c r="D12">
-        <v>3.002844237690835</v>
+        <v>3.002844237690675</v>
       </c>
       <c r="F12">
-        <v>43.51406593954564</v>
+        <v>43.51406593954565</v>
       </c>
       <c r="G12">
-        <v>1.988056249946762</v>
+        <v>1.988056249946627</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -728,25 +794,31 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.1632590949588</v>
+        <v>33.16325909495886</v>
       </c>
       <c r="C13">
-        <v>24.31404946246919</v>
+        <v>24.31404946246925</v>
       </c>
       <c r="D13">
-        <v>3.008962819814814</v>
+        <v>3.008962819814808</v>
       </c>
       <c r="F13">
-        <v>43.3764675626062</v>
+        <v>43.37646756260622</v>
       </c>
       <c r="G13">
-        <v>1.988896667407955</v>
+        <v>1.988896667408354</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -757,25 +829,31 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.8355593410766</v>
+        <v>32.83555934107666</v>
       </c>
       <c r="C14">
-        <v>24.0771189545627</v>
+        <v>24.07711895456273</v>
       </c>
       <c r="D14">
-        <v>3.029178577428114</v>
+        <v>3.029178577428131</v>
       </c>
       <c r="F14">
-        <v>42.92785236076713</v>
+        <v>42.92785236076735</v>
       </c>
       <c r="G14">
-        <v>1.991634192930609</v>
+        <v>1.991634192930483</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -786,25 +864,31 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.63405773330385</v>
+        <v>32.63405773330381</v>
       </c>
       <c r="C15">
-        <v>23.93144843800033</v>
+        <v>23.93144843800043</v>
       </c>
       <c r="D15">
-        <v>3.041755524138936</v>
+        <v>3.041755524138953</v>
       </c>
       <c r="F15">
-        <v>42.653140085064</v>
+        <v>42.65314008506414</v>
       </c>
       <c r="G15">
-        <v>1.9933086830269</v>
+        <v>1.993308683026779</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -815,22 +899,28 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.46701276973562</v>
+        <v>31.46701276973548</v>
       </c>
       <c r="C16">
-        <v>23.08800861018763</v>
+        <v>23.08800861018745</v>
       </c>
       <c r="D16">
-        <v>3.116541026544002</v>
+        <v>3.116541026544116</v>
       </c>
       <c r="F16">
-        <v>41.18810170100382</v>
+        <v>41.1881017010036</v>
       </c>
       <c r="G16">
         <v>2.002876020472171</v>
@@ -844,25 +934,31 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.73963593102726</v>
+        <v>30.73963593102703</v>
       </c>
       <c r="C17">
-        <v>22.56252127075084</v>
+        <v>22.56252127075074</v>
       </c>
       <c r="D17">
-        <v>3.1645798395417</v>
+        <v>3.164579839541759</v>
       </c>
       <c r="F17">
-        <v>40.30629889416075</v>
+        <v>40.30629889416024</v>
       </c>
       <c r="G17">
-        <v>2.008727143488856</v>
+        <v>2.008727143488982</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -873,25 +969,31 @@
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.31690209680231</v>
+        <v>30.31690209680221</v>
       </c>
       <c r="C18">
-        <v>22.25718546384069</v>
+        <v>22.25718546384073</v>
       </c>
       <c r="D18">
-        <v>3.192912020132321</v>
+        <v>3.192912020132423</v>
       </c>
       <c r="F18">
-        <v>39.80053138234497</v>
+        <v>39.80053138234492</v>
       </c>
       <c r="G18">
-        <v>2.012088611585668</v>
+        <v>2.012088611585663</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -902,25 +1004,31 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.1730070395622</v>
+        <v>30.17300703956224</v>
       </c>
       <c r="C19">
-        <v>22.15326210914901</v>
+        <v>22.15326210914904</v>
       </c>
       <c r="D19">
-        <v>3.20261743665471</v>
+        <v>3.202617436654663</v>
       </c>
       <c r="F19">
-        <v>39.62951616827468</v>
+        <v>39.62951616827466</v>
       </c>
       <c r="G19">
-        <v>2.013226312807453</v>
+        <v>2.01322631280758</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -931,25 +1039,31 @@
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.81751472760222</v>
+        <v>30.81751472760205</v>
       </c>
       <c r="C20">
-        <v>22.61877731264721</v>
+        <v>22.61877731264726</v>
       </c>
       <c r="D20">
-        <v>3.159391498569173</v>
+        <v>3.159391498569209</v>
       </c>
       <c r="F20">
-        <v>40.40001733984037</v>
+        <v>40.40001733984015</v>
       </c>
       <c r="G20">
-        <v>2.008104748227202</v>
+        <v>2.008104748227332</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -960,25 +1074,31 @@
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.93197337489588</v>
+        <v>32.93197337489563</v>
       </c>
       <c r="C21">
-        <v>24.14682369244333</v>
+        <v>24.14682369244306</v>
       </c>
       <c r="D21">
-        <v>3.023199572656339</v>
+        <v>3.023199572656526</v>
       </c>
       <c r="F21">
-        <v>43.05960371131711</v>
+        <v>43.05960371131684</v>
       </c>
       <c r="G21">
-        <v>1.990830617194917</v>
+        <v>1.990830617194924</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -989,25 +1109,31 @@
       <c r="K21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.27870618316622</v>
+        <v>34.27870618316627</v>
       </c>
       <c r="C22">
-        <v>25.12080630429581</v>
+        <v>25.12080630429576</v>
       </c>
       <c r="D22">
-        <v>2.942621195527505</v>
+        <v>2.942621195527615</v>
       </c>
       <c r="F22">
-        <v>44.92047478392356</v>
+        <v>44.92047478392371</v>
       </c>
       <c r="G22">
-        <v>1.979444515996814</v>
+        <v>1.979444515996678</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1018,25 +1144,31 @@
       <c r="K22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.56295356486633</v>
+        <v>33.56295356486637</v>
       </c>
       <c r="C23">
-        <v>24.60308169656263</v>
+        <v>24.60308169656261</v>
       </c>
       <c r="D23">
-        <v>2.984730856311247</v>
+        <v>2.984730856311263</v>
       </c>
       <c r="F23">
         <v>43.92672621178762</v>
       </c>
       <c r="G23">
-        <v>1.985533600783992</v>
+        <v>1.985533600783987</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1047,25 +1179,31 @@
       <c r="K23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.78231995068171</v>
+        <v>30.78231995068174</v>
       </c>
       <c r="C24">
-        <v>22.59335403424103</v>
+        <v>22.59335403424106</v>
       </c>
       <c r="D24">
-        <v>3.161734945219052</v>
+        <v>3.161734945218988</v>
       </c>
       <c r="F24">
-        <v>40.35764355953138</v>
+        <v>40.35764355953127</v>
       </c>
       <c r="G24">
-        <v>2.008386140027715</v>
+        <v>2.008386140027848</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1076,25 +1214,31 @@
       <c r="K24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.61451343611825</v>
+        <v>27.61451343611807</v>
       </c>
       <c r="C25">
-        <v>20.30627239687806</v>
+        <v>20.30627239687792</v>
       </c>
       <c r="D25">
-        <v>3.378935273910891</v>
+        <v>3.378935273910935</v>
       </c>
       <c r="F25">
-        <v>36.68982221908249</v>
+        <v>36.68982221908239</v>
       </c>
       <c r="G25">
-        <v>2.032909719090586</v>
+        <v>2.032909719090451</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1103,6 +1247,12 @@
         <v>0</v>
       </c>
       <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_line/loading_percent.xlsx
@@ -421,27 +421,39 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.12066508047191</v>
+        <v>14.18658272890286</v>
       </c>
       <c r="C2">
-        <v>18.50717636739437</v>
+        <v>6.689783121840807</v>
       </c>
       <c r="D2">
-        <v>3.553898362447425</v>
+        <v>4.915146429923166</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>34.02244805858472</v>
+        <v>24.57702580003928</v>
       </c>
       <c r="G2">
-        <v>2.051122619213445</v>
+        <v>34.09709546294256</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>11.47471875535491</v>
       </c>
       <c r="I2">
+        <v>19.14245319451236</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
+        <v>11.66639281659277</v>
+      </c>
+      <c r="L2">
+        <v>8.090342827400793</v>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
@@ -456,27 +468,39 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.32294356700523</v>
+        <v>13.2192580125678</v>
       </c>
       <c r="C3">
-        <v>17.21087892886645</v>
+        <v>6.560460938833764</v>
       </c>
       <c r="D3">
-        <v>3.679471898860492</v>
+        <v>4.886853534103326</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>32.23415050789144</v>
+        <v>24.03509732576438</v>
       </c>
       <c r="G3">
-        <v>2.063671027823775</v>
+        <v>33.3050565649972</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>11.44799611513136</v>
       </c>
       <c r="I3">
+        <v>19.07814134665013</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
+        <v>10.97664350942184</v>
+      </c>
+      <c r="L3">
+        <v>7.808895638065004</v>
+      </c>
+      <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
@@ -491,27 +515,39 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.16404985398544</v>
+        <v>12.59120307213789</v>
       </c>
       <c r="C4">
-        <v>16.37545588287079</v>
+        <v>6.479514260640146</v>
       </c>
       <c r="D4">
-        <v>3.759503404831629</v>
+        <v>4.86909977982087</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>31.14658319201853</v>
+        <v>23.71775021415642</v>
       </c>
       <c r="G4">
-        <v>2.071507428230488</v>
+        <v>32.84319378236558</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>11.4392394805723</v>
       </c>
       <c r="I4">
+        <v>19.05307833700389</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
+        <v>10.53127219258233</v>
+      </c>
+      <c r="L4">
+        <v>7.636127229955624</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
@@ -526,27 +562,39 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.6776694315884</v>
+        <v>12.32662246162861</v>
       </c>
       <c r="C5">
-        <v>16.02488370029545</v>
+        <v>6.446151675571674</v>
       </c>
       <c r="D5">
-        <v>3.792794968854198</v>
+        <v>4.861772463332917</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>30.70628172688164</v>
+        <v>23.592351474089</v>
       </c>
       <c r="G5">
-        <v>2.07473794795759</v>
+        <v>32.66118117883185</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>11.43752799767491</v>
       </c>
       <c r="I5">
+        <v>19.04635940521572</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
+        <v>10.34430580392217</v>
+      </c>
+      <c r="L5">
+        <v>7.565828423389352</v>
+      </c>
+      <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
@@ -561,27 +609,39 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.59604590236438</v>
+        <v>12.28216515633645</v>
       </c>
       <c r="C6">
-        <v>15.96605406594502</v>
+        <v>6.440589492236382</v>
       </c>
       <c r="D6">
-        <v>3.798362538024317</v>
+        <v>4.860550284000726</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>30.63335419682886</v>
+        <v>23.57176729638814</v>
       </c>
       <c r="G6">
-        <v>2.07527672600186</v>
+        <v>32.63133372434879</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>11.43735399827372</v>
       </c>
       <c r="I6">
+        <v>19.04545087774875</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
+        <v>10.31293054717255</v>
+      </c>
+      <c r="L6">
+        <v>7.554164669679573</v>
+      </c>
+      <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
@@ -596,27 +656,39 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.15754787882374</v>
+        <v>12.58766992635264</v>
       </c>
       <c r="C7">
-        <v>16.3707692145503</v>
+        <v>6.479065827787764</v>
       </c>
       <c r="D7">
-        <v>3.759949707178304</v>
+        <v>4.869001330992626</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>31.14063300677173</v>
+        <v>23.7160431007978</v>
       </c>
       <c r="G7">
-        <v>2.071550840791371</v>
+        <v>32.84071393826844</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>11.43920896896403</v>
       </c>
       <c r="I7">
+        <v>19.05297375071581</v>
+      </c>
+      <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
+        <v>10.52877282043634</v>
+      </c>
+      <c r="L7">
+        <v>7.635178596353946</v>
+      </c>
+      <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
@@ -631,27 +703,39 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.51207418911754</v>
+        <v>13.86008983083627</v>
       </c>
       <c r="C8">
-        <v>18.06828337257613</v>
+        <v>6.645519492470984</v>
       </c>
       <c r="D8">
-        <v>3.596547931528959</v>
+        <v>4.905472344891696</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>33.40379692199348</v>
+        <v>24.38700598129251</v>
       </c>
       <c r="G8">
-        <v>2.055424538320199</v>
+        <v>33.8189615077789</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>11.46387649629141</v>
       </c>
       <c r="I8">
+        <v>19.11720522442205</v>
+      </c>
+      <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
+        <v>11.43311439575266</v>
+      </c>
+      <c r="L8">
+        <v>7.993346105502219</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
@@ -666,27 +750,39 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.70565874362181</v>
+        <v>16.08763958060273</v>
       </c>
       <c r="C9">
-        <v>21.09380119068824</v>
+        <v>6.959270535636016</v>
       </c>
       <c r="D9">
-        <v>3.303033518747219</v>
+        <v>4.973814794926642</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>37.91964836802479</v>
+        <v>25.82238586983857</v>
       </c>
       <c r="G9">
-        <v>2.024640570915209</v>
+        <v>35.92841378381721</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.57595317527136</v>
       </c>
       <c r="I9">
+        <v>19.36347278230349</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
+        <v>13.03275223347225</v>
+      </c>
+      <c r="L9">
+        <v>8.692276899662209</v>
+      </c>
+      <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
@@ -701,27 +797,39 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.54943156856661</v>
+        <v>17.56536636740471</v>
       </c>
       <c r="C10">
-        <v>23.14756063989129</v>
+        <v>7.181632306267799</v>
       </c>
       <c r="D10">
-        <v>3.11116090027705</v>
+        <v>5.02189896345333</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>41.28892695156154</v>
+        <v>26.94634892773631</v>
       </c>
       <c r="G10">
-        <v>2.002207640482523</v>
+        <v>37.59055086944933</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>11.70123279021263</v>
       </c>
       <c r="I10">
+        <v>19.62564412949006</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
+        <v>14.10254720231936</v>
+      </c>
+      <c r="L10">
+        <v>9.199338779268428</v>
+      </c>
+      <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
@@ -736,27 +844,39 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.79707246070613</v>
+        <v>18.20411148719637</v>
       </c>
       <c r="C11">
-        <v>24.04929482422331</v>
+        <v>7.280970380077532</v>
       </c>
       <c r="D11">
-        <v>3.03157238722357</v>
+        <v>5.043273287388687</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>42.87531494114132</v>
+        <v>27.47203826631933</v>
       </c>
       <c r="G11">
-        <v>1.991954538386483</v>
+        <v>38.37025514907025</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>11.76842936386449</v>
       </c>
       <c r="I11">
+        <v>19.76420902893792</v>
+      </c>
+      <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
+        <v>14.56663383890242</v>
+      </c>
+      <c r="L11">
+        <v>9.427904143543895</v>
+      </c>
+      <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
@@ -771,27 +891,39 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.26343758473495</v>
+        <v>18.44125703418554</v>
       </c>
       <c r="C12">
-        <v>24.38648672549973</v>
+        <v>7.318324487714191</v>
       </c>
       <c r="D12">
-        <v>3.002844237690675</v>
+        <v>5.051292220711506</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>43.51406593954565</v>
+        <v>27.67312351846608</v>
       </c>
       <c r="G12">
-        <v>1.988056249946627</v>
+        <v>38.66884409546547</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>11.7954150062666</v>
       </c>
       <c r="I12">
+        <v>19.81958904886171</v>
+      </c>
+      <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
+        <v>14.73916136609091</v>
+      </c>
+      <c r="L12">
+        <v>9.514108771979842</v>
+      </c>
+      <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
@@ -806,27 +938,39 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.16325909495886</v>
+        <v>18.3903926821944</v>
       </c>
       <c r="C13">
-        <v>24.31404946246925</v>
+        <v>7.310291318574884</v>
       </c>
       <c r="D13">
-        <v>3.008962819814808</v>
+        <v>5.049568588972384</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>43.37646756260622</v>
+        <v>27.62972713726185</v>
       </c>
       <c r="G13">
-        <v>1.988896667408354</v>
+        <v>38.60439018544282</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>11.78953352901641</v>
       </c>
       <c r="I13">
+        <v>19.80753050570034</v>
+      </c>
+      <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
+        <v>14.70214671949169</v>
+      </c>
+      <c r="L13">
+        <v>9.495559164773379</v>
+      </c>
+      <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
@@ -841,27 +985,39 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.83555934107666</v>
+        <v>18.22371597948235</v>
       </c>
       <c r="C14">
-        <v>24.07711895456273</v>
+        <v>7.2840488002042</v>
       </c>
       <c r="D14">
-        <v>3.029178577428131</v>
+        <v>5.043934532437324</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>42.92785236076735</v>
+        <v>27.48854147447413</v>
       </c>
       <c r="G14">
-        <v>1.991634192930483</v>
+        <v>38.39475374121754</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11.77061821454878</v>
       </c>
       <c r="I14">
+        <v>19.76870612719919</v>
+      </c>
+      <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
+        <v>14.5808919378971</v>
+      </c>
+      <c r="L14">
+        <v>9.435003452761203</v>
+      </c>
+      <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
@@ -876,27 +1032,39 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.63405773330381</v>
+        <v>18.12100773469894</v>
       </c>
       <c r="C15">
-        <v>23.93144843800043</v>
+        <v>7.267940222170993</v>
       </c>
       <c r="D15">
-        <v>3.041755524138953</v>
+        <v>5.040473640405406</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>42.65314008506414</v>
+        <v>27.40232268444398</v>
       </c>
       <c r="G15">
-        <v>1.993308683026779</v>
+        <v>38.26677781484092</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11.75923471108538</v>
       </c>
       <c r="I15">
+        <v>19.745307778304</v>
+      </c>
+      <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
+        <v>14.50620270365604</v>
+      </c>
+      <c r="L15">
+        <v>9.397864810912919</v>
+      </c>
+      <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
@@ -911,27 +1079,39 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.46701276973548</v>
+        <v>17.52295600401067</v>
       </c>
       <c r="C16">
-        <v>23.08800861018745</v>
+        <v>7.175103572971158</v>
       </c>
       <c r="D16">
-        <v>3.116541026544116</v>
+        <v>5.020491772377573</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>41.1881017010036</v>
+        <v>26.91227882650815</v>
       </c>
       <c r="G16">
-        <v>2.002876020472171</v>
+        <v>37.54006446566103</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>11.69705286331203</v>
       </c>
       <c r="I16">
+        <v>19.61698837233579</v>
+      </c>
+      <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
+        <v>14.07176658517917</v>
+      </c>
+      <c r="L16">
+        <v>9.184355048443056</v>
+      </c>
+      <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
@@ -946,27 +1126,39 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.73963593102703</v>
+        <v>17.14755201325098</v>
       </c>
       <c r="C17">
-        <v>22.56252127075074</v>
+        <v>7.117684152083383</v>
       </c>
       <c r="D17">
-        <v>3.164579839541759</v>
+        <v>5.008103296898811</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>40.30629889416024</v>
+        <v>26.61529871603551</v>
       </c>
       <c r="G17">
-        <v>2.008727143488982</v>
+        <v>37.10024267506768</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>11.66157152005256</v>
       </c>
       <c r="I17">
+        <v>19.54330711545702</v>
+      </c>
+      <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
+        <v>13.79949501084217</v>
+      </c>
+      <c r="L17">
+        <v>9.05279964763735</v>
+      </c>
+      <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
@@ -981,27 +1173,39 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.31690209680221</v>
+        <v>16.92847318141244</v>
       </c>
       <c r="C18">
-        <v>22.25718546384073</v>
+        <v>7.084487122717177</v>
       </c>
       <c r="D18">
-        <v>3.192912020132423</v>
+        <v>5.000930955472479</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>39.80053138234492</v>
+        <v>26.44584080122695</v>
       </c>
       <c r="G18">
-        <v>2.012088611585663</v>
+        <v>36.8494918789045</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>11.6421199160375</v>
       </c>
       <c r="I18">
+        <v>19.50273651965749</v>
+      </c>
+      <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
+        <v>13.6407648536588</v>
+      </c>
+      <c r="L18">
+        <v>8.976936910300422</v>
+      </c>
+      <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
@@ -1016,27 +1220,39 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.17300703956224</v>
+        <v>16.85375233435692</v>
       </c>
       <c r="C19">
-        <v>22.15326210914904</v>
+        <v>7.073217926949062</v>
       </c>
       <c r="D19">
-        <v>3.202617436654663</v>
+        <v>4.998494583200876</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>39.62951616827466</v>
+        <v>26.38870012986743</v>
       </c>
       <c r="G19">
-        <v>2.01322631280758</v>
+        <v>36.76497591785351</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11.63569599864095</v>
       </c>
       <c r="I19">
+        <v>19.48930663029435</v>
+      </c>
+      <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
+        <v>13.58665539030597</v>
+      </c>
+      <c r="L19">
+        <v>8.951219090407905</v>
+      </c>
+      <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
@@ -1051,27 +1267,39 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.81751472760205</v>
+        <v>17.18784050802308</v>
       </c>
       <c r="C20">
-        <v>22.61877731264726</v>
+        <v>7.123814256755002</v>
       </c>
       <c r="D20">
-        <v>3.159391498569209</v>
+        <v>5.009426940531966</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>40.40001733984015</v>
+        <v>26.64677270494201</v>
       </c>
       <c r="G20">
-        <v>2.008104748227332</v>
+        <v>37.1468328739204</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>11.66524907297561</v>
       </c>
       <c r="I20">
+        <v>19.55096242970191</v>
+      </c>
+      <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
+        <v>13.82869867823025</v>
+      </c>
+      <c r="L20">
+        <v>9.066824552517925</v>
+      </c>
+      <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
@@ -1086,27 +1314,39 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.93197337489563</v>
+        <v>18.27280076399974</v>
       </c>
       <c r="C21">
-        <v>24.14682369244306</v>
+        <v>7.291764007624704</v>
       </c>
       <c r="D21">
-        <v>3.023199572656526</v>
+        <v>5.045591453930323</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>43.05960371131684</v>
+        <v>27.52995670192171</v>
       </c>
       <c r="G21">
-        <v>1.990830617194924</v>
+        <v>38.45623900360016</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>11.77613173448492</v>
       </c>
       <c r="I21">
+        <v>19.78002979692147</v>
+      </c>
+      <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
+        <v>14.61659427615508</v>
+      </c>
+      <c r="L21">
+        <v>9.45279989506723</v>
+      </c>
+      <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
@@ -1121,27 +1361,39 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.27870618316627</v>
+        <v>18.95433586743128</v>
       </c>
       <c r="C22">
-        <v>25.12080630429576</v>
+        <v>7.399996341037653</v>
       </c>
       <c r="D22">
-        <v>2.942621195527615</v>
+        <v>5.068788106771154</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>44.92047478392371</v>
+        <v>28.11891765400766</v>
       </c>
       <c r="G22">
-        <v>1.979444515996678</v>
+        <v>39.33141960693442</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.8576088488145</v>
       </c>
       <c r="I22">
+        <v>19.94675282893666</v>
+      </c>
+      <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
+        <v>15.11282833847905</v>
+      </c>
+      <c r="L22">
+        <v>9.703014312159192</v>
+      </c>
+      <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
@@ -1156,27 +1408,39 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.56295356486637</v>
+        <v>18.5930806716492</v>
       </c>
       <c r="C23">
-        <v>24.60308169656261</v>
+        <v>7.342370969329277</v>
       </c>
       <c r="D23">
-        <v>2.984730856311263</v>
+        <v>5.05644883001681</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>43.92672621178762</v>
+        <v>27.80351656429151</v>
       </c>
       <c r="G23">
-        <v>1.985533600783987</v>
+        <v>38.86255792334599</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>11.81327465649992</v>
       </c>
       <c r="I23">
+        <v>19.85616904537079</v>
+      </c>
+      <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
+        <v>14.84967707679448</v>
+      </c>
+      <c r="L23">
+        <v>9.569669520101613</v>
+      </c>
+      <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
@@ -1191,27 +1455,39 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.78231995068174</v>
+        <v>17.16963622134256</v>
       </c>
       <c r="C24">
-        <v>22.59335403424106</v>
+        <v>7.121043415096982</v>
       </c>
       <c r="D24">
-        <v>3.161734945218988</v>
+        <v>5.008828676867965</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>40.35764355953127</v>
+        <v>26.6325393238283</v>
       </c>
       <c r="G24">
-        <v>2.008386140027848</v>
+        <v>37.12576287229182</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>11.66358350676689</v>
       </c>
       <c r="I24">
+        <v>19.54749589756053</v>
+      </c>
+      <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
+        <v>13.81550254767561</v>
+      </c>
+      <c r="L24">
+        <v>9.060484605114903</v>
+      </c>
+      <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
@@ -1226,27 +1502,39 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.61451343611807</v>
+        <v>15.51324642570917</v>
       </c>
       <c r="C25">
-        <v>20.30627239687792</v>
+        <v>6.875799785175392</v>
       </c>
       <c r="D25">
-        <v>3.378935273910935</v>
+        <v>4.955686468184274</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>36.68982221908239</v>
+        <v>25.42163427938493</v>
       </c>
       <c r="G25">
-        <v>2.032909719090451</v>
+        <v>35.3377138110376</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11.53838982997943</v>
       </c>
       <c r="I25">
+        <v>19.28314868695906</v>
+      </c>
+      <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
+        <v>12.6186017614046</v>
+      </c>
+      <c r="L25">
+        <v>8.504052084864782</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">

--- a/Code/Results/Cases/Case_3_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.18658272890286</v>
+        <v>12.39168865321855</v>
       </c>
       <c r="C2">
-        <v>6.689783121840807</v>
+        <v>7.705118187527729</v>
       </c>
       <c r="D2">
-        <v>4.915146429923166</v>
+        <v>6.124506861666825</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24.57702580003928</v>
+        <v>30.64648970081679</v>
       </c>
       <c r="G2">
-        <v>34.09709546294256</v>
+        <v>39.86261056736877</v>
       </c>
       <c r="H2">
-        <v>11.47471875535491</v>
+        <v>16.98432677521102</v>
       </c>
       <c r="I2">
-        <v>19.14245319451236</v>
+        <v>26.97121611393189</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.66639281659277</v>
+        <v>9.657103836434102</v>
       </c>
       <c r="L2">
-        <v>8.090342827400793</v>
+        <v>10.77732768935635</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.2192580125678</v>
+        <v>12.15051307766703</v>
       </c>
       <c r="C3">
-        <v>6.560460938833764</v>
+        <v>7.661987034119713</v>
       </c>
       <c r="D3">
-        <v>4.886853534103326</v>
+        <v>6.109094150988058</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.03509732576438</v>
+        <v>30.62306899707377</v>
       </c>
       <c r="G3">
-        <v>33.3050565649972</v>
+        <v>39.80585660675756</v>
       </c>
       <c r="H3">
-        <v>11.44799611513136</v>
+        <v>17.01940709013206</v>
       </c>
       <c r="I3">
-        <v>19.07814134665013</v>
+        <v>27.02683374229053</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.97664350942184</v>
+        <v>9.492121103413655</v>
       </c>
       <c r="L3">
-        <v>7.808895638065004</v>
+        <v>10.75267311188222</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.59120307213789</v>
+        <v>12.0028815433371</v>
       </c>
       <c r="C4">
-        <v>6.479514260640146</v>
+        <v>7.634845639825076</v>
       </c>
       <c r="D4">
-        <v>4.86909977982087</v>
+        <v>6.099386743446866</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.71775021415642</v>
+        <v>30.61632872983111</v>
       </c>
       <c r="G4">
-        <v>32.84319378236558</v>
+        <v>39.78225839286551</v>
       </c>
       <c r="H4">
-        <v>11.4392394805723</v>
+        <v>17.04381535474398</v>
       </c>
       <c r="I4">
-        <v>19.05307833700389</v>
+        <v>27.06616912165674</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.53127219258233</v>
+        <v>9.391494338371452</v>
       </c>
       <c r="L4">
-        <v>7.636127229955624</v>
+        <v>10.73972205923505</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.32662246162861</v>
+        <v>11.94292202951443</v>
       </c>
       <c r="C5">
-        <v>6.446151675571674</v>
+        <v>7.623622057516834</v>
       </c>
       <c r="D5">
-        <v>4.861772463332917</v>
+        <v>6.09537015496533</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.592351474089</v>
+        <v>30.6155046173716</v>
       </c>
       <c r="G5">
-        <v>32.66118117883185</v>
+        <v>39.77547368209394</v>
       </c>
       <c r="H5">
-        <v>11.43752799767491</v>
+        <v>17.0544823484231</v>
       </c>
       <c r="I5">
-        <v>19.04635940521572</v>
+        <v>27.08349989781946</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.34430580392217</v>
+        <v>9.350713472294217</v>
       </c>
       <c r="L5">
-        <v>7.565828423389352</v>
+        <v>10.73499805262949</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.28216515633645</v>
+        <v>11.93298056898979</v>
       </c>
       <c r="C6">
-        <v>6.440589492236382</v>
+        <v>7.621748600788412</v>
       </c>
       <c r="D6">
-        <v>4.860550284000726</v>
+        <v>6.094699552530492</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.57176729638814</v>
+        <v>30.61548390761527</v>
       </c>
       <c r="G6">
-        <v>32.63133372434879</v>
+        <v>39.77451815400573</v>
       </c>
       <c r="H6">
-        <v>11.43735399827372</v>
+        <v>17.05629707707906</v>
       </c>
       <c r="I6">
-        <v>19.04545087774875</v>
+        <v>27.08645617003394</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.31293054717255</v>
+        <v>9.343957094858984</v>
       </c>
       <c r="L6">
-        <v>7.554164669679573</v>
+        <v>10.73424717320855</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.58766992635264</v>
+        <v>12.00207197503704</v>
       </c>
       <c r="C7">
-        <v>6.479065827787764</v>
+        <v>7.634694932467726</v>
       </c>
       <c r="D7">
-        <v>4.869001330992626</v>
+        <v>6.099332819484318</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.7160431007978</v>
+        <v>30.6163098302733</v>
       </c>
       <c r="G7">
-        <v>32.84071393826844</v>
+        <v>39.78215542422966</v>
       </c>
       <c r="H7">
-        <v>11.43920896896403</v>
+        <v>17.04395629791969</v>
       </c>
       <c r="I7">
-        <v>19.05297375071581</v>
+        <v>27.06639758553107</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.52877282043634</v>
+        <v>9.390943366626695</v>
       </c>
       <c r="L7">
-        <v>7.635178596353946</v>
+        <v>10.73965610336146</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.86008983083627</v>
+        <v>12.30849003528283</v>
       </c>
       <c r="C8">
-        <v>6.645519492470984</v>
+        <v>7.690384700814167</v>
       </c>
       <c r="D8">
-        <v>4.905472344891696</v>
+        <v>6.119243544614517</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>24.38700598129251</v>
+        <v>30.63682981315702</v>
       </c>
       <c r="G8">
-        <v>33.8189615077789</v>
+        <v>39.84070976647707</v>
       </c>
       <c r="H8">
-        <v>11.46387649629141</v>
+        <v>16.99582649292301</v>
       </c>
       <c r="I8">
-        <v>19.11720522442205</v>
+        <v>26.98931513565116</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.43311439575266</v>
+        <v>9.600111554185156</v>
       </c>
       <c r="L8">
-        <v>7.993346105502219</v>
+        <v>10.76837526911453</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.08763958060273</v>
+        <v>12.90917427315382</v>
       </c>
       <c r="C9">
-        <v>6.959270535636016</v>
+        <v>7.794263899689346</v>
       </c>
       <c r="D9">
-        <v>4.973814794926642</v>
+        <v>6.156327766211261</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>25.82238586983857</v>
+        <v>30.7375667930127</v>
       </c>
       <c r="G9">
-        <v>35.92841378381721</v>
+        <v>40.0445322822459</v>
       </c>
       <c r="H9">
-        <v>11.57595317527136</v>
+        <v>16.92424740913268</v>
       </c>
       <c r="I9">
-        <v>19.36347278230349</v>
+        <v>26.87942081755584</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.03275223347225</v>
+        <v>10.01319734593842</v>
       </c>
       <c r="L9">
-        <v>8.692276899662209</v>
+        <v>10.84186114509493</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.56536636740471</v>
+        <v>13.34548664680622</v>
       </c>
       <c r="C10">
-        <v>7.181632306267799</v>
+        <v>7.867203874272128</v>
       </c>
       <c r="D10">
-        <v>5.02189896345333</v>
+        <v>6.182346458574306</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.94634892773631</v>
+        <v>30.84820354569441</v>
       </c>
       <c r="G10">
-        <v>37.59055086944933</v>
+        <v>40.24801457289677</v>
       </c>
       <c r="H10">
-        <v>11.70123279021263</v>
+        <v>16.88561191927035</v>
       </c>
       <c r="I10">
-        <v>19.62564412949006</v>
+        <v>26.82398526990774</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.10254720231936</v>
+        <v>10.31527566298891</v>
       </c>
       <c r="L10">
-        <v>9.199338779268428</v>
+        <v>10.90603911339534</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.20411148719637</v>
+        <v>13.54191810794798</v>
       </c>
       <c r="C11">
-        <v>7.280970380077532</v>
+        <v>7.899624761392799</v>
       </c>
       <c r="D11">
-        <v>5.043273287388687</v>
+        <v>6.19390999739595</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.47203826631933</v>
+        <v>30.90640212885151</v>
       </c>
       <c r="G11">
-        <v>38.37025514907025</v>
+        <v>40.35208219319081</v>
       </c>
       <c r="H11">
-        <v>11.76842936386449</v>
+        <v>16.87107495687437</v>
       </c>
       <c r="I11">
-        <v>19.76420902893792</v>
+        <v>26.80428762844544</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.56663383890242</v>
+        <v>10.45174653290226</v>
       </c>
       <c r="L11">
-        <v>9.427904143543895</v>
+        <v>10.93737840456982</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.44125703418554</v>
+        <v>13.61593132830035</v>
       </c>
       <c r="C12">
-        <v>7.318324487714191</v>
+        <v>7.911790071391119</v>
       </c>
       <c r="D12">
-        <v>5.051292220711506</v>
+        <v>6.198249038938418</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.67312351846608</v>
+        <v>30.92956221959502</v>
       </c>
       <c r="G12">
-        <v>38.66884409546547</v>
+        <v>40.39312510402098</v>
       </c>
       <c r="H12">
-        <v>11.7954150062666</v>
+        <v>16.86600771507476</v>
       </c>
       <c r="I12">
-        <v>19.81958904886171</v>
+        <v>26.79762419427225</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.73916136609091</v>
+        <v>10.50323740369169</v>
       </c>
       <c r="L12">
-        <v>9.514108771979842</v>
+        <v>10.94954755300075</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.3903926821944</v>
+        <v>13.6000089330348</v>
       </c>
       <c r="C13">
-        <v>7.310291318574884</v>
+        <v>7.90917506508923</v>
       </c>
       <c r="D13">
-        <v>5.049568588972384</v>
+        <v>6.197316329742179</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.62972713726185</v>
+        <v>30.92452457452385</v>
       </c>
       <c r="G13">
-        <v>38.60439018544282</v>
+        <v>40.38421340820231</v>
       </c>
       <c r="H13">
-        <v>11.78953352901641</v>
+        <v>16.86707956501153</v>
       </c>
       <c r="I13">
-        <v>19.80753050570034</v>
+        <v>26.79902387183087</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.70214671949169</v>
+        <v>10.49215706763115</v>
       </c>
       <c r="L13">
-        <v>9.495559164773379</v>
+        <v>10.946913405355</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.22371597948235</v>
+        <v>13.54801508010736</v>
       </c>
       <c r="C14">
-        <v>7.2840488002042</v>
+        <v>7.900627863181973</v>
       </c>
       <c r="D14">
-        <v>5.043934532437324</v>
+        <v>6.194267774617404</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.48854147447413</v>
+        <v>30.90828510886775</v>
       </c>
       <c r="G14">
-        <v>38.39475374121754</v>
+        <v>40.35542617520331</v>
       </c>
       <c r="H14">
-        <v>11.77061821454878</v>
+        <v>16.87064929850746</v>
       </c>
       <c r="I14">
-        <v>19.76870612719919</v>
+        <v>26.80372346852101</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.5808919378971</v>
+        <v>10.45598676666929</v>
       </c>
       <c r="L14">
-        <v>9.435003452761203</v>
+        <v>10.93837356249849</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.12100773469894</v>
+        <v>13.51611681985542</v>
       </c>
       <c r="C15">
-        <v>7.267940222170993</v>
+        <v>7.895377824760942</v>
       </c>
       <c r="D15">
-        <v>5.040473640405406</v>
+        <v>6.192395242135045</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>27.40232268444398</v>
+        <v>30.8984837020446</v>
       </c>
       <c r="G15">
-        <v>38.26677781484092</v>
+        <v>40.33800543932561</v>
       </c>
       <c r="H15">
-        <v>11.75923471108538</v>
+        <v>16.87289286815211</v>
       </c>
       <c r="I15">
-        <v>19.745307778304</v>
+        <v>26.8067057718386</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.50620270365604</v>
+        <v>10.43380547854453</v>
       </c>
       <c r="L15">
-        <v>9.397864810912919</v>
+        <v>10.93318173747378</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.52295600401067</v>
+        <v>13.33260152102606</v>
       </c>
       <c r="C16">
-        <v>7.175103572971158</v>
+        <v>7.865069587407334</v>
       </c>
       <c r="D16">
-        <v>5.020491772377573</v>
+        <v>6.181585216385121</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26.91227882650815</v>
+        <v>30.84455765822473</v>
       </c>
       <c r="G16">
-        <v>37.54006446566103</v>
+        <v>40.24144338273226</v>
       </c>
       <c r="H16">
-        <v>11.69705286331203</v>
+        <v>16.88662314512538</v>
       </c>
       <c r="I16">
-        <v>19.61698837233579</v>
+        <v>26.8253838015569</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.07176658517917</v>
+        <v>10.30633346526024</v>
       </c>
       <c r="L16">
-        <v>9.184355048443056</v>
+        <v>10.90403360321156</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.14755201325098</v>
+        <v>13.21944023154547</v>
       </c>
       <c r="C17">
-        <v>7.117684152083383</v>
+        <v>7.84628004995419</v>
       </c>
       <c r="D17">
-        <v>5.008103296898811</v>
+        <v>6.174883369399231</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>26.61529871603551</v>
+        <v>30.81348463837548</v>
       </c>
       <c r="G17">
-        <v>37.10024267506768</v>
+        <v>40.1851389041414</v>
       </c>
       <c r="H17">
-        <v>11.66157152005256</v>
+        <v>16.89582496229424</v>
       </c>
       <c r="I17">
-        <v>19.54330711545702</v>
+        <v>26.83825742897938</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.79949501084217</v>
+        <v>10.22785372193607</v>
       </c>
       <c r="L17">
-        <v>9.05279964763735</v>
+        <v>10.88669675754346</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.92847318141244</v>
+        <v>13.15416427444587</v>
       </c>
       <c r="C18">
-        <v>7.084487122717177</v>
+        <v>7.835401430263027</v>
       </c>
       <c r="D18">
-        <v>5.000930955472479</v>
+        <v>6.171003033339266</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.44584080122695</v>
+        <v>30.79635366013417</v>
       </c>
       <c r="G18">
-        <v>36.8494918789045</v>
+        <v>40.15383805743472</v>
       </c>
       <c r="H18">
-        <v>11.6421199160375</v>
+        <v>16.90140357100391</v>
       </c>
       <c r="I18">
-        <v>19.50273651965749</v>
+        <v>26.8461815006095</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.6407648536588</v>
+        <v>10.18262814790491</v>
       </c>
       <c r="L18">
-        <v>8.976936910300422</v>
+        <v>10.87692733564361</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.85375233435692</v>
+        <v>13.13203296809232</v>
       </c>
       <c r="C19">
-        <v>7.073217926949062</v>
+        <v>7.83170593477892</v>
       </c>
       <c r="D19">
-        <v>4.998494583200876</v>
+        <v>6.169684838986068</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>26.38870012986743</v>
+        <v>30.7906810232035</v>
       </c>
       <c r="G19">
-        <v>36.76497591785351</v>
+        <v>40.14342684955908</v>
       </c>
       <c r="H19">
-        <v>11.63569599864095</v>
+        <v>16.90334148545733</v>
       </c>
       <c r="I19">
-        <v>19.48930663029435</v>
+        <v>26.84895361983588</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.58665539030597</v>
+        <v>10.16730236939058</v>
       </c>
       <c r="L19">
-        <v>8.951219090407905</v>
+        <v>10.87365451555964</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.18784050802308</v>
+        <v>13.23150652831433</v>
       </c>
       <c r="C20">
-        <v>7.123814256755002</v>
+        <v>7.84828763357465</v>
       </c>
       <c r="D20">
-        <v>5.009426940531966</v>
+        <v>6.175599447696889</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>26.64677270494201</v>
+        <v>30.81671575016576</v>
       </c>
       <c r="G20">
-        <v>37.1468328739204</v>
+        <v>40.1910205530391</v>
       </c>
       <c r="H20">
-        <v>11.66524907297561</v>
+        <v>16.89481581153823</v>
       </c>
       <c r="I20">
-        <v>19.55096242970191</v>
+        <v>26.83683322873377</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.82869867823025</v>
+        <v>10.23621731731049</v>
       </c>
       <c r="L20">
-        <v>9.066824552517925</v>
+        <v>10.88852140717287</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.27280076399974</v>
+        <v>13.56329759450513</v>
       </c>
       <c r="C21">
-        <v>7.291764007624704</v>
+        <v>7.903141436974489</v>
       </c>
       <c r="D21">
-        <v>5.045591453930323</v>
+        <v>6.195164294880725</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.52995670192171</v>
+        <v>30.91302468262836</v>
       </c>
       <c r="G21">
-        <v>38.45623900360016</v>
+        <v>40.36383748350762</v>
       </c>
       <c r="H21">
-        <v>11.77613173448492</v>
+        <v>16.86958890047794</v>
       </c>
       <c r="I21">
-        <v>19.78002979692147</v>
+        <v>26.80232147656514</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.61659427615508</v>
+        <v>10.46661635433566</v>
       </c>
       <c r="L21">
-        <v>9.45279989506723</v>
+        <v>10.94087379069969</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.95433586743128</v>
+        <v>13.77794676798173</v>
       </c>
       <c r="C22">
-        <v>7.399996341037653</v>
+        <v>7.93833891032853</v>
       </c>
       <c r="D22">
-        <v>5.068788106771154</v>
+        <v>6.20771866384083</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>28.11891765400766</v>
+        <v>30.98249967086585</v>
       </c>
       <c r="G22">
-        <v>39.33141960693442</v>
+        <v>40.48630114096753</v>
       </c>
       <c r="H22">
-        <v>11.8576088488145</v>
+        <v>16.85565249501563</v>
       </c>
       <c r="I22">
-        <v>19.94675282893666</v>
+        <v>26.78440427070682</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.11282833847905</v>
+        <v>10.61607922997272</v>
       </c>
       <c r="L22">
-        <v>9.703014312159192</v>
+        <v>10.97684386275867</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.5930806716492</v>
+        <v>13.66360947038547</v>
       </c>
       <c r="C23">
-        <v>7.342370969329277</v>
+        <v>7.919613894701182</v>
       </c>
       <c r="D23">
-        <v>5.05644883001681</v>
+        <v>6.201039632804503</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.80351656429151</v>
+        <v>30.94482563597331</v>
       </c>
       <c r="G23">
-        <v>38.86255792334599</v>
+        <v>40.42007616934029</v>
       </c>
       <c r="H23">
-        <v>11.81327465649992</v>
+        <v>16.86285702628875</v>
       </c>
       <c r="I23">
-        <v>19.85616904537079</v>
+        <v>26.7935420922667</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.84967707679448</v>
+        <v>10.53642665144518</v>
       </c>
       <c r="L23">
-        <v>9.569669520101613</v>
+        <v>10.95748772980718</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.16963622134256</v>
+        <v>13.2260520287742</v>
       </c>
       <c r="C24">
-        <v>7.121043415096982</v>
+        <v>7.847380242396802</v>
       </c>
       <c r="D24">
-        <v>5.008828676867965</v>
+        <v>6.175275793838175</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26.6325393238283</v>
+        <v>30.81525267949245</v>
       </c>
       <c r="G24">
-        <v>37.12576287229182</v>
+        <v>40.18835812710926</v>
       </c>
       <c r="H24">
-        <v>11.66358350676689</v>
+        <v>16.89527115037528</v>
       </c>
       <c r="I24">
-        <v>19.54749589756053</v>
+        <v>26.83747548109637</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.81550254767561</v>
+        <v>10.23243646367707</v>
       </c>
       <c r="L24">
-        <v>9.060484605114903</v>
+        <v>10.88769586656976</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.51324642570917</v>
+        <v>12.74721132023897</v>
       </c>
       <c r="C25">
-        <v>6.875799785175392</v>
+        <v>7.766745931865934</v>
       </c>
       <c r="D25">
-        <v>4.955686468184274</v>
+        <v>6.146508707355546</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.42163427938493</v>
+        <v>30.7038584516244</v>
       </c>
       <c r="G25">
-        <v>35.3377138110376</v>
+        <v>39.97990771226733</v>
       </c>
       <c r="H25">
-        <v>11.53838982997943</v>
+        <v>16.94116444342559</v>
       </c>
       <c r="I25">
-        <v>19.28314868695906</v>
+        <v>26.90471628185504</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.6186017614046</v>
+        <v>9.901470083986963</v>
       </c>
       <c r="L25">
-        <v>8.504052084864782</v>
+        <v>10.82017010969083</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.39168865321855</v>
+        <v>14.18658272890285</v>
       </c>
       <c r="C2">
-        <v>7.705118187527729</v>
+        <v>6.689783121841055</v>
       </c>
       <c r="D2">
-        <v>6.124506861666825</v>
+        <v>4.915146429923343</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.64648970081679</v>
+        <v>24.57702580003913</v>
       </c>
       <c r="G2">
-        <v>39.86261056736877</v>
+        <v>34.09709546294242</v>
       </c>
       <c r="H2">
-        <v>16.98432677521102</v>
+        <v>11.47471875535483</v>
       </c>
       <c r="I2">
-        <v>26.97121611393189</v>
+        <v>19.1424531945123</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.657103836434102</v>
+        <v>11.66639281659278</v>
       </c>
       <c r="L2">
-        <v>10.77732768935635</v>
+        <v>8.0903428274008</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.15051307766703</v>
+        <v>13.21925801256781</v>
       </c>
       <c r="C3">
-        <v>7.661987034119713</v>
+        <v>6.560460938834025</v>
       </c>
       <c r="D3">
-        <v>6.109094150988058</v>
+        <v>4.886853534103389</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>30.62306899707377</v>
+        <v>24.03509732576408</v>
       </c>
       <c r="G3">
-        <v>39.80585660675756</v>
+        <v>33.30505656499686</v>
       </c>
       <c r="H3">
-        <v>17.01940709013206</v>
+        <v>11.44799611513126</v>
       </c>
       <c r="I3">
-        <v>27.02683374229053</v>
+        <v>19.07814134664999</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.492121103413655</v>
+        <v>10.97664350942195</v>
       </c>
       <c r="L3">
-        <v>10.75267311188222</v>
+        <v>7.808895638065032</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.0028815433371</v>
+        <v>12.59120307213789</v>
       </c>
       <c r="C4">
-        <v>7.634845639825076</v>
+        <v>6.47951426064025</v>
       </c>
       <c r="D4">
-        <v>6.099386743446866</v>
+        <v>4.869099779821055</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30.61632872983111</v>
+        <v>23.71775021415638</v>
       </c>
       <c r="G4">
-        <v>39.78225839286551</v>
+        <v>32.84319378236563</v>
       </c>
       <c r="H4">
-        <v>17.04381535474398</v>
+        <v>11.43923948057232</v>
       </c>
       <c r="I4">
-        <v>27.06616912165674</v>
+        <v>19.05307833700391</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.391494338371452</v>
+        <v>10.53127219258233</v>
       </c>
       <c r="L4">
-        <v>10.73972205923505</v>
+        <v>7.636127229955624</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.94292202951443</v>
+        <v>12.32662246162861</v>
       </c>
       <c r="C5">
-        <v>7.623622057516834</v>
+        <v>6.446151675571915</v>
       </c>
       <c r="D5">
-        <v>6.09537015496533</v>
+        <v>4.861772463332911</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.6155046173716</v>
+        <v>23.592351474089</v>
       </c>
       <c r="G5">
-        <v>39.77547368209394</v>
+        <v>32.66118117883184</v>
       </c>
       <c r="H5">
-        <v>17.0544823484231</v>
+        <v>11.43752799767492</v>
       </c>
       <c r="I5">
-        <v>27.08349989781946</v>
+        <v>19.04635940521581</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.350713472294217</v>
+        <v>10.34430580392217</v>
       </c>
       <c r="L5">
-        <v>10.73499805262949</v>
+        <v>7.565828423389391</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.93298056898979</v>
+        <v>12.28216515633643</v>
       </c>
       <c r="C6">
-        <v>7.621748600788412</v>
+        <v>6.440589492236372</v>
       </c>
       <c r="D6">
-        <v>6.094699552530492</v>
+        <v>4.860550284000593</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30.61548390761527</v>
+        <v>23.57176729638829</v>
       </c>
       <c r="G6">
-        <v>39.77451815400573</v>
+        <v>32.63133372434883</v>
       </c>
       <c r="H6">
-        <v>17.05629707707906</v>
+        <v>11.43735399827384</v>
       </c>
       <c r="I6">
-        <v>27.08645617003394</v>
+        <v>19.04545087774886</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.343957094858984</v>
+        <v>10.31293054717255</v>
       </c>
       <c r="L6">
-        <v>10.73424717320855</v>
+        <v>7.554164669679595</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.00207197503704</v>
+        <v>12.58766992635261</v>
       </c>
       <c r="C7">
-        <v>7.634694932467726</v>
+        <v>6.479065827787503</v>
       </c>
       <c r="D7">
-        <v>6.099332819484318</v>
+        <v>4.869001330992885</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>30.6163098302733</v>
+        <v>23.71604310079784</v>
       </c>
       <c r="G7">
-        <v>39.78215542422966</v>
+        <v>32.84071393826868</v>
       </c>
       <c r="H7">
-        <v>17.04395629791969</v>
+        <v>11.43920896896406</v>
       </c>
       <c r="I7">
-        <v>27.06639758553107</v>
+        <v>19.05297375071586</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.390943366626695</v>
+        <v>10.52877282043624</v>
       </c>
       <c r="L7">
-        <v>10.73965610336146</v>
+        <v>7.63517859635394</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.30849003528283</v>
+        <v>13.86008983083627</v>
       </c>
       <c r="C8">
-        <v>7.690384700814167</v>
+        <v>6.645519492470964</v>
       </c>
       <c r="D8">
-        <v>6.119243544614517</v>
+        <v>4.90547234489163</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30.63682981315702</v>
+        <v>24.38700598129258</v>
       </c>
       <c r="G8">
-        <v>39.84070976647707</v>
+        <v>33.81896150777904</v>
       </c>
       <c r="H8">
-        <v>16.99582649292301</v>
+        <v>11.46387649629143</v>
       </c>
       <c r="I8">
-        <v>26.98931513565116</v>
+        <v>19.11720522442211</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.600111554185156</v>
+        <v>11.43311439575263</v>
       </c>
       <c r="L8">
-        <v>10.76837526911453</v>
+        <v>7.993346105502217</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.90917427315382</v>
+        <v>16.08763958060274</v>
       </c>
       <c r="C9">
-        <v>7.794263899689346</v>
+        <v>6.959270535636117</v>
       </c>
       <c r="D9">
-        <v>6.156327766211261</v>
+        <v>4.973814794926884</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.7375667930127</v>
+        <v>25.82238586983864</v>
       </c>
       <c r="G9">
-        <v>40.0445322822459</v>
+        <v>35.92841378381746</v>
       </c>
       <c r="H9">
-        <v>16.92424740913268</v>
+        <v>11.57595317527142</v>
       </c>
       <c r="I9">
-        <v>26.87942081755584</v>
+        <v>19.3634727823036</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.01319734593842</v>
+        <v>13.03275223347225</v>
       </c>
       <c r="L9">
-        <v>10.84186114509493</v>
+        <v>8.692276899662215</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.34548664680622</v>
+        <v>17.56536636740474</v>
       </c>
       <c r="C10">
-        <v>7.867203874272128</v>
+        <v>7.181632306267908</v>
       </c>
       <c r="D10">
-        <v>6.182346458574306</v>
+        <v>5.021898963453249</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.84820354569441</v>
+        <v>26.94634892773633</v>
       </c>
       <c r="G10">
-        <v>40.24801457289677</v>
+        <v>37.59055086944936</v>
       </c>
       <c r="H10">
-        <v>16.88561191927035</v>
+        <v>11.70123279021265</v>
       </c>
       <c r="I10">
-        <v>26.82398526990774</v>
+        <v>19.62564412949003</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.31527566298891</v>
+        <v>14.10254720231941</v>
       </c>
       <c r="L10">
-        <v>10.90603911339534</v>
+        <v>9.199338779268428</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.54191810794798</v>
+        <v>18.2041114871964</v>
       </c>
       <c r="C11">
-        <v>7.899624761392799</v>
+        <v>7.280970380077278</v>
       </c>
       <c r="D11">
-        <v>6.19390999739595</v>
+        <v>5.043273287388674</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.90640212885151</v>
+        <v>27.47203826631938</v>
       </c>
       <c r="G11">
-        <v>40.35208219319081</v>
+        <v>38.3702551490704</v>
       </c>
       <c r="H11">
-        <v>16.87107495687437</v>
+        <v>11.76842936386457</v>
       </c>
       <c r="I11">
-        <v>26.80428762844544</v>
+        <v>19.76420902893799</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.45174653290226</v>
+        <v>14.56663383890242</v>
       </c>
       <c r="L11">
-        <v>10.93737840456982</v>
+        <v>9.4279041435439</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.61593132830035</v>
+        <v>18.44125703418557</v>
       </c>
       <c r="C12">
-        <v>7.911790071391119</v>
+        <v>7.318324487714067</v>
       </c>
       <c r="D12">
-        <v>6.198249038938418</v>
+        <v>5.05129222071168</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.92956221959502</v>
+        <v>27.67312351846607</v>
       </c>
       <c r="G12">
-        <v>40.39312510402098</v>
+        <v>38.66884409546547</v>
       </c>
       <c r="H12">
-        <v>16.86600771507476</v>
+        <v>11.79541500626661</v>
       </c>
       <c r="I12">
-        <v>26.79762419427225</v>
+        <v>19.81958904886166</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.50323740369169</v>
+        <v>14.73916136609092</v>
       </c>
       <c r="L12">
-        <v>10.94954755300075</v>
+        <v>9.514108771979874</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.6000089330348</v>
+        <v>18.39039268219447</v>
       </c>
       <c r="C13">
-        <v>7.90917506508923</v>
+        <v>7.31029131857463</v>
       </c>
       <c r="D13">
-        <v>6.197316329742179</v>
+        <v>5.049568588972329</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30.92452457452385</v>
+        <v>27.62972713726185</v>
       </c>
       <c r="G13">
-        <v>40.38421340820231</v>
+        <v>38.60439018544273</v>
       </c>
       <c r="H13">
-        <v>16.86707956501153</v>
+        <v>11.78953352901641</v>
       </c>
       <c r="I13">
-        <v>26.79902387183087</v>
+        <v>19.80753050570029</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.49215706763115</v>
+        <v>14.70214671949172</v>
       </c>
       <c r="L13">
-        <v>10.946913405355</v>
+        <v>9.495559164773359</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.54801508010736</v>
+        <v>18.22371597948234</v>
       </c>
       <c r="C14">
-        <v>7.900627863181973</v>
+        <v>7.284048800204415</v>
       </c>
       <c r="D14">
-        <v>6.194267774617404</v>
+        <v>5.043934532437437</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>30.90828510886775</v>
+        <v>27.48854147447428</v>
       </c>
       <c r="G14">
-        <v>40.35542617520331</v>
+        <v>38.39475374121776</v>
       </c>
       <c r="H14">
-        <v>16.87064929850746</v>
+        <v>11.77061821454884</v>
       </c>
       <c r="I14">
-        <v>26.80372346852101</v>
+        <v>19.76870612719937</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.45598676666929</v>
+        <v>14.58089193789711</v>
       </c>
       <c r="L14">
-        <v>10.93837356249849</v>
+        <v>9.435003452761217</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.51611681985542</v>
+        <v>18.1210077346989</v>
       </c>
       <c r="C15">
-        <v>7.895377824760942</v>
+        <v>7.26794022217098</v>
       </c>
       <c r="D15">
-        <v>6.192395242135045</v>
+        <v>5.040473640405599</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>30.8984837020446</v>
+        <v>27.402322684444</v>
       </c>
       <c r="G15">
-        <v>40.33800543932561</v>
+        <v>38.26677781484096</v>
       </c>
       <c r="H15">
-        <v>16.87289286815211</v>
+        <v>11.75923471108545</v>
       </c>
       <c r="I15">
-        <v>26.8067057718386</v>
+        <v>19.74530777830411</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.43380547854453</v>
+        <v>14.50620270365602</v>
       </c>
       <c r="L15">
-        <v>10.93318173747378</v>
+        <v>9.397864810912878</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.33260152102606</v>
+        <v>17.5229560040107</v>
       </c>
       <c r="C16">
-        <v>7.865069587407334</v>
+        <v>7.175103572971148</v>
       </c>
       <c r="D16">
-        <v>6.181585216385121</v>
+        <v>5.020491772377699</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.84455765822473</v>
+        <v>26.9122788265081</v>
       </c>
       <c r="G16">
-        <v>40.24144338273226</v>
+        <v>37.54006446566095</v>
       </c>
       <c r="H16">
-        <v>16.88662314512538</v>
+        <v>11.69705286331201</v>
       </c>
       <c r="I16">
-        <v>26.8253838015569</v>
+        <v>19.61698837233574</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.30633346526024</v>
+        <v>14.07176658517919</v>
       </c>
       <c r="L16">
-        <v>10.90403360321156</v>
+        <v>9.184355048443056</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.21944023154547</v>
+        <v>17.14755201325101</v>
       </c>
       <c r="C17">
-        <v>7.84628004995419</v>
+        <v>7.117684152083406</v>
       </c>
       <c r="D17">
-        <v>6.174883369399231</v>
+        <v>5.008103296898674</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.81348463837548</v>
+        <v>26.61529871603548</v>
       </c>
       <c r="G17">
-        <v>40.1851389041414</v>
+        <v>37.10024267506765</v>
       </c>
       <c r="H17">
-        <v>16.89582496229424</v>
+        <v>11.66157152005241</v>
       </c>
       <c r="I17">
-        <v>26.83825742897938</v>
+        <v>19.5433071154569</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.22785372193607</v>
+        <v>13.79949501084223</v>
       </c>
       <c r="L17">
-        <v>10.88669675754346</v>
+        <v>9.052799647637372</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.15416427444587</v>
+        <v>16.92847318141245</v>
       </c>
       <c r="C18">
-        <v>7.835401430263027</v>
+        <v>7.084487122717031</v>
       </c>
       <c r="D18">
-        <v>6.171003033339266</v>
+        <v>5.000930955472591</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.79635366013417</v>
+        <v>26.445840801227</v>
       </c>
       <c r="G18">
-        <v>40.15383805743472</v>
+        <v>36.84949187890467</v>
       </c>
       <c r="H18">
-        <v>16.90140357100391</v>
+        <v>11.64211991603753</v>
       </c>
       <c r="I18">
-        <v>26.8461815006095</v>
+        <v>19.50273651965755</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.18262814790491</v>
+        <v>13.6407648536588</v>
       </c>
       <c r="L18">
-        <v>10.87692733564361</v>
+        <v>8.976936910300466</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.13203296809232</v>
+        <v>16.85375233435693</v>
       </c>
       <c r="C19">
-        <v>7.83170593477892</v>
+        <v>7.073217926948942</v>
       </c>
       <c r="D19">
-        <v>6.169684838986068</v>
+        <v>4.998494583201188</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.7906810232035</v>
+        <v>26.38870012986749</v>
       </c>
       <c r="G19">
-        <v>40.14342684955908</v>
+        <v>36.76497591785377</v>
       </c>
       <c r="H19">
-        <v>16.90334148545733</v>
+        <v>11.63569599864096</v>
       </c>
       <c r="I19">
-        <v>26.84895361983588</v>
+        <v>19.48930663029445</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.16730236939058</v>
+        <v>13.58665539030596</v>
       </c>
       <c r="L19">
-        <v>10.87365451555964</v>
+        <v>8.951219090407905</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.23150652831433</v>
+        <v>17.18784050802316</v>
       </c>
       <c r="C20">
-        <v>7.84828763357465</v>
+        <v>7.123814256755101</v>
       </c>
       <c r="D20">
-        <v>6.175599447696889</v>
+        <v>5.00942694053196</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.81671575016576</v>
+        <v>26.64677270494182</v>
       </c>
       <c r="G20">
-        <v>40.1910205530391</v>
+        <v>37.14683287392018</v>
       </c>
       <c r="H20">
-        <v>16.89481581153823</v>
+        <v>11.66524907297555</v>
       </c>
       <c r="I20">
-        <v>26.83683322873377</v>
+        <v>19.55096242970178</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.23621731731049</v>
+        <v>13.82869867823026</v>
       </c>
       <c r="L20">
-        <v>10.88852140717287</v>
+        <v>9.066824552517948</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.56329759450513</v>
+        <v>18.27280076399967</v>
       </c>
       <c r="C21">
-        <v>7.903141436974489</v>
+        <v>7.2917640076248</v>
       </c>
       <c r="D21">
-        <v>6.195164294880725</v>
+        <v>5.045591453930317</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30.91302468262836</v>
+        <v>27.52995670192189</v>
       </c>
       <c r="G21">
-        <v>40.36383748350762</v>
+        <v>38.45623900360046</v>
       </c>
       <c r="H21">
-        <v>16.86958890047794</v>
+        <v>11.77613173448497</v>
       </c>
       <c r="I21">
-        <v>26.80232147656514</v>
+        <v>19.78002979692166</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.46661635433566</v>
+        <v>14.61659427615501</v>
       </c>
       <c r="L21">
-        <v>10.94087379069969</v>
+        <v>9.452799895067219</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.77794676798173</v>
+        <v>18.95433586743128</v>
       </c>
       <c r="C22">
-        <v>7.93833891032853</v>
+        <v>7.399996341037762</v>
       </c>
       <c r="D22">
-        <v>6.20771866384083</v>
+        <v>5.068788106771209</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.98249967086585</v>
+        <v>28.11891765400769</v>
       </c>
       <c r="G22">
-        <v>40.48630114096753</v>
+        <v>39.3314196069345</v>
       </c>
       <c r="H22">
-        <v>16.85565249501563</v>
+        <v>11.85760884881447</v>
       </c>
       <c r="I22">
-        <v>26.78440427070682</v>
+        <v>19.94675282893665</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.61607922997272</v>
+        <v>15.11282833847909</v>
       </c>
       <c r="L22">
-        <v>10.97684386275867</v>
+        <v>9.703014312159182</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.66360947038547</v>
+        <v>18.59308067164922</v>
       </c>
       <c r="C23">
-        <v>7.919613894701182</v>
+        <v>7.342370969329143</v>
       </c>
       <c r="D23">
-        <v>6.201039632804503</v>
+        <v>5.056448830016926</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.94482563597331</v>
+        <v>27.80351656429153</v>
       </c>
       <c r="G23">
-        <v>40.42007616934029</v>
+        <v>38.86255792334611</v>
       </c>
       <c r="H23">
-        <v>16.86285702628875</v>
+        <v>11.81327465649993</v>
       </c>
       <c r="I23">
-        <v>26.7935420922667</v>
+        <v>19.85616904537082</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.53642665144518</v>
+        <v>14.84967707679448</v>
       </c>
       <c r="L23">
-        <v>10.95748772980718</v>
+        <v>9.569669520101639</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.2260520287742</v>
+        <v>17.16963622134264</v>
       </c>
       <c r="C24">
-        <v>7.847380242396802</v>
+        <v>7.121043415096971</v>
       </c>
       <c r="D24">
-        <v>6.175275793838175</v>
+        <v>5.008828676867827</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.81525267949245</v>
+        <v>26.63253932382828</v>
       </c>
       <c r="G24">
-        <v>40.18835812710926</v>
+        <v>37.12576287229178</v>
       </c>
       <c r="H24">
-        <v>16.89527115037528</v>
+        <v>11.66358350676685</v>
       </c>
       <c r="I24">
-        <v>26.83747548109637</v>
+        <v>19.54749589756046</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.23243646367707</v>
+        <v>13.81550254767566</v>
       </c>
       <c r="L24">
-        <v>10.88769586656976</v>
+        <v>9.060484605114851</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.74721132023897</v>
+        <v>15.51324642570918</v>
       </c>
       <c r="C25">
-        <v>7.766745931865934</v>
+        <v>6.875799785175005</v>
       </c>
       <c r="D25">
-        <v>6.146508707355546</v>
+        <v>4.955686468184134</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.7038584516244</v>
+        <v>25.42163427938504</v>
       </c>
       <c r="G25">
-        <v>39.97990771226733</v>
+        <v>35.33771381103772</v>
       </c>
       <c r="H25">
-        <v>16.94116444342559</v>
+        <v>11.53838982997949</v>
       </c>
       <c r="I25">
-        <v>26.90471628185504</v>
+        <v>19.28314868695911</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.901470083986963</v>
+        <v>12.61860176140456</v>
       </c>
       <c r="L25">
-        <v>10.82017010969083</v>
+        <v>8.504052084864782</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,922 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.18658272890285</v>
+        <v>24.66718799605347</v>
       </c>
       <c r="C2">
-        <v>6.689783121841055</v>
+        <v>19.57012325420019</v>
       </c>
       <c r="D2">
-        <v>4.915146429923343</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>4.635744085829634</v>
       </c>
       <c r="F2">
-        <v>24.57702580003913</v>
+        <v>15.24944004738346</v>
       </c>
       <c r="G2">
-        <v>34.09709546294242</v>
-      </c>
-      <c r="H2">
-        <v>11.47471875535483</v>
+        <v>17.99373284995211</v>
       </c>
       <c r="I2">
-        <v>19.1424531945123</v>
+        <v>3.474014537559655</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.375761781790483</v>
       </c>
       <c r="K2">
-        <v>11.66639281659278</v>
-      </c>
-      <c r="L2">
-        <v>8.0903428274008</v>
+        <v>9.868305751907933</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.21925801256781</v>
+        <v>23.0518683133053</v>
       </c>
       <c r="C3">
-        <v>6.560460938834025</v>
+        <v>18.35248771874348</v>
       </c>
       <c r="D3">
-        <v>4.886853534103389</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>4.45849621672979</v>
       </c>
       <c r="F3">
-        <v>24.03509732576408</v>
+        <v>14.92111156030315</v>
       </c>
       <c r="G3">
-        <v>33.30505656499686</v>
-      </c>
-      <c r="H3">
-        <v>11.44799611513126</v>
+        <v>17.52979732339306</v>
       </c>
       <c r="I3">
-        <v>19.07814134664999</v>
+        <v>3.262353868181143</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.4791908296469</v>
       </c>
       <c r="K3">
-        <v>10.97664350942195</v>
-      </c>
-      <c r="L3">
-        <v>7.808895638065032</v>
+        <v>10.30327633098508</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.59120307213789</v>
+        <v>22.00092163654097</v>
       </c>
       <c r="C4">
-        <v>6.47951426064025</v>
+        <v>17.5681877372663</v>
       </c>
       <c r="D4">
-        <v>4.869099779821055</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>4.347187656365428</v>
       </c>
       <c r="F4">
-        <v>23.71775021415638</v>
+        <v>14.73874145476351</v>
       </c>
       <c r="G4">
-        <v>32.84319378236563</v>
-      </c>
-      <c r="H4">
-        <v>11.43923948057232</v>
+        <v>17.2794414775193</v>
       </c>
       <c r="I4">
-        <v>19.05307833700391</v>
+        <v>3.129168787039693</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.5502100702115</v>
       </c>
       <c r="K4">
-        <v>10.53127219258233</v>
-      </c>
-      <c r="L4">
-        <v>7.636127229955624</v>
+        <v>10.57710498504827</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.32662246162861</v>
+        <v>21.55752423328626</v>
       </c>
       <c r="C5">
-        <v>6.446151675571915</v>
+        <v>17.25112486187157</v>
       </c>
       <c r="D5">
-        <v>4.861772463332911</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>4.304517671034143</v>
       </c>
       <c r="F5">
-        <v>23.592351474089</v>
+        <v>14.65270115477289</v>
       </c>
       <c r="G5">
-        <v>32.66118117883184</v>
-      </c>
-      <c r="H5">
-        <v>11.43752799767492</v>
+        <v>17.15559548528207</v>
       </c>
       <c r="I5">
-        <v>19.04635940521581</v>
+        <v>3.074388373259443</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.576200396424931</v>
       </c>
       <c r="K5">
-        <v>10.34430580392217</v>
-      </c>
-      <c r="L5">
-        <v>7.565828423389391</v>
+        <v>10.68482166068059</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.28216515633643</v>
+        <v>21.48274260003182</v>
       </c>
       <c r="C6">
-        <v>6.440589492236372</v>
+        <v>17.212289641187</v>
       </c>
       <c r="D6">
-        <v>4.860550284000593</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>4.301408332404927</v>
       </c>
       <c r="F6">
-        <v>23.57176729638829</v>
+        <v>14.6185381277094</v>
       </c>
       <c r="G6">
-        <v>32.63133372434883</v>
-      </c>
-      <c r="H6">
-        <v>11.43735399827384</v>
+        <v>17.09844644075572</v>
       </c>
       <c r="I6">
-        <v>19.04545087774886</v>
+        <v>3.065822415553734</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.574854697899978</v>
       </c>
       <c r="K6">
-        <v>10.31293054717255</v>
-      </c>
-      <c r="L6">
-        <v>7.554164669679595</v>
+        <v>10.69606128588538</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.58766992635261</v>
+        <v>21.99432933734889</v>
       </c>
       <c r="C7">
-        <v>6.479065827787503</v>
+        <v>17.60232250710212</v>
       </c>
       <c r="D7">
-        <v>4.869001330992885</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>4.357465314824206</v>
       </c>
       <c r="F7">
-        <v>23.71604310079784</v>
+        <v>14.68284258041976</v>
       </c>
       <c r="G7">
-        <v>32.84071393826868</v>
-      </c>
-      <c r="H7">
-        <v>11.43920896896406</v>
+        <v>17.17711631657551</v>
       </c>
       <c r="I7">
-        <v>19.05297375071586</v>
+        <v>3.129695921938057</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.5347597344462</v>
       </c>
       <c r="K7">
-        <v>10.52877282043624</v>
-      </c>
-      <c r="L7">
-        <v>7.63517859635394</v>
+        <v>10.55998252224731</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.86008983083627</v>
+        <v>24.12165444091877</v>
       </c>
       <c r="C8">
-        <v>6.645519492470964</v>
+        <v>19.20504123050806</v>
       </c>
       <c r="D8">
-        <v>4.90547234489163</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>4.589066903439055</v>
       </c>
       <c r="F8">
-        <v>24.38700598129258</v>
+        <v>15.06173990599985</v>
       </c>
       <c r="G8">
-        <v>33.81896150777904</v>
-      </c>
-      <c r="H8">
-        <v>11.46387649629143</v>
+        <v>17.69748603000918</v>
       </c>
       <c r="I8">
-        <v>19.11720522442211</v>
+        <v>3.402878288251156</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.388701849513233</v>
       </c>
       <c r="K8">
-        <v>11.43311439575263</v>
-      </c>
-      <c r="L8">
-        <v>7.993346105502217</v>
+        <v>9.991788500779791</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.08763958060274</v>
+        <v>27.82789888111993</v>
       </c>
       <c r="C9">
-        <v>6.959270535636117</v>
+        <v>21.99545533880975</v>
       </c>
       <c r="D9">
-        <v>4.973814794926884</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>5.0035283576355</v>
       </c>
       <c r="F9">
-        <v>25.82238586983864</v>
+        <v>16.05368652055677</v>
       </c>
       <c r="G9">
-        <v>35.92841378381746</v>
-      </c>
-      <c r="H9">
-        <v>11.57595317527142</v>
+        <v>19.16839684885908</v>
       </c>
       <c r="I9">
-        <v>19.3634727823036</v>
+        <v>3.913071975260458</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.196463275342624</v>
       </c>
       <c r="K9">
-        <v>13.03275223347225</v>
-      </c>
-      <c r="L9">
-        <v>8.692276899662215</v>
+        <v>8.966171548567466</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.56536636740474</v>
+        <v>30.27052741120765</v>
       </c>
       <c r="C10">
-        <v>7.181632306267908</v>
+        <v>23.88494129332369</v>
       </c>
       <c r="D10">
-        <v>5.021898963453249</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>5.298398272032397</v>
       </c>
       <c r="F10">
-        <v>26.94634892773633</v>
+        <v>16.85257101901103</v>
       </c>
       <c r="G10">
-        <v>37.59055086944936</v>
-      </c>
-      <c r="H10">
-        <v>11.70123279021265</v>
+        <v>20.37347760962087</v>
       </c>
       <c r="I10">
-        <v>19.62564412949003</v>
+        <v>4.275532993572266</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.095990773843145</v>
       </c>
       <c r="K10">
-        <v>14.10254720231941</v>
-      </c>
-      <c r="L10">
-        <v>9.199338779268428</v>
+        <v>8.238488794850856</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.2041114871964</v>
+        <v>31.32120077833638</v>
       </c>
       <c r="C11">
-        <v>7.280970380077278</v>
+        <v>24.75261140059415</v>
       </c>
       <c r="D11">
-        <v>5.043273287388674</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>5.444269153950127</v>
       </c>
       <c r="F11">
-        <v>27.47203826631938</v>
+        <v>17.16148251303517</v>
       </c>
       <c r="G11">
-        <v>38.3702551490704</v>
-      </c>
-      <c r="H11">
-        <v>11.76842936386457</v>
+        <v>20.82527858557888</v>
       </c>
       <c r="I11">
-        <v>19.76420902893799</v>
+        <v>4.44013358632064</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.036432582208445</v>
       </c>
       <c r="K11">
-        <v>14.56663383890242</v>
-      </c>
-      <c r="L11">
-        <v>9.4279041435439</v>
+        <v>7.881191995361834</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.44125703418557</v>
+        <v>31.71099247640194</v>
       </c>
       <c r="C12">
-        <v>7.318324487714067</v>
+        <v>25.05039845851304</v>
       </c>
       <c r="D12">
-        <v>5.05129222071168</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>5.490762310100001</v>
       </c>
       <c r="F12">
-        <v>27.67312351846607</v>
+        <v>17.32239414320481</v>
       </c>
       <c r="G12">
-        <v>38.66884409546547</v>
-      </c>
-      <c r="H12">
-        <v>11.79541500626661</v>
+        <v>21.07432966309227</v>
       </c>
       <c r="I12">
-        <v>19.81958904886166</v>
+        <v>4.501077621417015</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.029964281881716</v>
       </c>
       <c r="K12">
-        <v>14.73916136609092</v>
-      </c>
-      <c r="L12">
-        <v>9.514108771979874</v>
+        <v>7.765403613383837</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.39039268219447</v>
+        <v>31.62750360465622</v>
       </c>
       <c r="C13">
-        <v>7.31029131857463</v>
+        <v>24.98153835237298</v>
       </c>
       <c r="D13">
-        <v>5.049568588972329</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>5.479142430953893</v>
       </c>
       <c r="F13">
-        <v>27.62972713726185</v>
+        <v>17.2956683141018</v>
       </c>
       <c r="G13">
-        <v>38.60439018544273</v>
-      </c>
-      <c r="H13">
-        <v>11.78953352901641</v>
+        <v>21.03470474022942</v>
       </c>
       <c r="I13">
-        <v>19.80753050570029</v>
+        <v>4.487702902300044</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.034097187833231</v>
       </c>
       <c r="K13">
-        <v>14.70214671949172</v>
-      </c>
-      <c r="L13">
-        <v>9.495559164773359</v>
+        <v>7.793992182741828</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.22371597948234</v>
+        <v>31.35347455041463</v>
       </c>
       <c r="C14">
-        <v>7.284048800204415</v>
+        <v>24.7750925625858</v>
       </c>
       <c r="D14">
-        <v>5.043934532437437</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>5.447408825849265</v>
       </c>
       <c r="F14">
-        <v>27.48854147447428</v>
+        <v>17.17810847985565</v>
       </c>
       <c r="G14">
-        <v>38.39475374121776</v>
-      </c>
-      <c r="H14">
-        <v>11.77061821454884</v>
+        <v>20.85176549079198</v>
       </c>
       <c r="I14">
-        <v>19.76870612719937</v>
+        <v>4.445036359538097</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.037062095994433</v>
       </c>
       <c r="K14">
-        <v>14.58089193789711</v>
-      </c>
-      <c r="L14">
-        <v>9.435003452761217</v>
+        <v>7.873202203830133</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.1210077346989</v>
+        <v>31.18435395703737</v>
       </c>
       <c r="C15">
-        <v>7.26794022217098</v>
+        <v>24.65786724725878</v>
       </c>
       <c r="D15">
-        <v>5.040473640405599</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>5.431144599775898</v>
       </c>
       <c r="F15">
-        <v>27.402322684444</v>
+        <v>17.09040312739856</v>
       </c>
       <c r="G15">
-        <v>38.26677781484096</v>
-      </c>
-      <c r="H15">
-        <v>11.75923471108545</v>
+        <v>20.71186878580191</v>
       </c>
       <c r="I15">
-        <v>19.74530777830411</v>
+        <v>4.419455914831988</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.033570913655751</v>
       </c>
       <c r="K15">
-        <v>14.50620270365602</v>
-      </c>
-      <c r="L15">
-        <v>9.397864810912878</v>
+        <v>7.914725932132375</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.5229560040107</v>
+        <v>30.19923811632254</v>
       </c>
       <c r="C16">
-        <v>7.175103572971148</v>
+        <v>23.9129688955429</v>
       </c>
       <c r="D16">
-        <v>5.020491772377699</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>5.316435810468352</v>
       </c>
       <c r="F16">
-        <v>26.9122788265081</v>
+        <v>16.69493868365477</v>
       </c>
       <c r="G16">
-        <v>37.54006446566095</v>
-      </c>
-      <c r="H16">
-        <v>11.69705286331201</v>
+        <v>20.09916571987909</v>
       </c>
       <c r="I16">
-        <v>19.61698837233574</v>
+        <v>4.268844058273498</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.053173348466323</v>
       </c>
       <c r="K16">
-        <v>14.07176658517919</v>
-      </c>
-      <c r="L16">
-        <v>9.184355048443056</v>
+        <v>8.202116127802062</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.14755201325101</v>
+        <v>29.57966426764883</v>
       </c>
       <c r="C17">
-        <v>7.117684152083406</v>
+        <v>23.44646025289279</v>
       </c>
       <c r="D17">
-        <v>5.008103296898674</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>5.245145748926795</v>
       </c>
       <c r="F17">
-        <v>26.61529871603548</v>
+        <v>16.45760819018012</v>
       </c>
       <c r="G17">
-        <v>37.10024267506765</v>
-      </c>
-      <c r="H17">
-        <v>11.66157152005241</v>
+        <v>19.73221315761324</v>
       </c>
       <c r="I17">
-        <v>19.5433071154569</v>
+        <v>4.176024911140948</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.06880370797462</v>
       </c>
       <c r="K17">
-        <v>13.79949501084223</v>
-      </c>
-      <c r="L17">
-        <v>9.052799647637372</v>
+        <v>8.381268657768098</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.92847318141245</v>
+        <v>29.21811584403163</v>
       </c>
       <c r="C18">
-        <v>7.084487122717031</v>
+        <v>23.14793765087941</v>
       </c>
       <c r="D18">
-        <v>5.000930955472591</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>5.195278022781668</v>
       </c>
       <c r="F18">
-        <v>26.445840801227</v>
+        <v>16.365755657435</v>
       </c>
       <c r="G18">
-        <v>36.84949187890467</v>
-      </c>
-      <c r="H18">
-        <v>11.64211991603753</v>
+        <v>19.60099085276389</v>
       </c>
       <c r="I18">
-        <v>19.50273651965755</v>
+        <v>4.120514217337822</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.093237818373893</v>
       </c>
       <c r="K18">
-        <v>13.6407648536588</v>
-      </c>
-      <c r="L18">
-        <v>8.976936910300466</v>
+        <v>8.502719203408578</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.85375233435693</v>
+        <v>29.0943927856232</v>
       </c>
       <c r="C19">
-        <v>7.073217926948942</v>
+        <v>23.06678811408393</v>
       </c>
       <c r="D19">
-        <v>4.998494583201188</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>5.184906722020052</v>
       </c>
       <c r="F19">
-        <v>26.38870012986749</v>
+        <v>16.30212486650758</v>
       </c>
       <c r="G19">
-        <v>36.76497591785377</v>
-      </c>
-      <c r="H19">
-        <v>11.63569599864096</v>
+        <v>19.49827866963393</v>
       </c>
       <c r="I19">
-        <v>19.48930663029445</v>
+        <v>4.103134799754008</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.090782890877658</v>
       </c>
       <c r="K19">
-        <v>13.58665539030596</v>
-      </c>
-      <c r="L19">
-        <v>8.951219090407905</v>
+        <v>8.530515167626932</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.18784050802316</v>
+        <v>29.64623490994229</v>
       </c>
       <c r="C20">
-        <v>7.123814256755101</v>
+        <v>23.49441537413238</v>
       </c>
       <c r="D20">
-        <v>5.00942694053196</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>5.25210423374062</v>
       </c>
       <c r="F20">
-        <v>26.64677270494182</v>
+        <v>16.48599072995789</v>
       </c>
       <c r="G20">
-        <v>37.14683287392018</v>
-      </c>
-      <c r="H20">
-        <v>11.66524907297555</v>
+        <v>19.77686663672458</v>
       </c>
       <c r="I20">
-        <v>19.55096242970178</v>
+        <v>4.185765676874141</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.068120836396457</v>
       </c>
       <c r="K20">
-        <v>13.82869867823026</v>
-      </c>
-      <c r="L20">
-        <v>9.066824552517948</v>
+        <v>8.363471113561909</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.27280076399967</v>
+        <v>31.4337279027163</v>
       </c>
       <c r="C21">
-        <v>7.2917640076248</v>
+        <v>24.86382749908996</v>
       </c>
       <c r="D21">
-        <v>5.045591453930317</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>5.465908434118658</v>
       </c>
       <c r="F21">
-        <v>27.52995670192189</v>
+        <v>17.16722260317395</v>
       </c>
       <c r="G21">
-        <v>38.45623900360046</v>
-      </c>
-      <c r="H21">
-        <v>11.77613173448497</v>
+        <v>20.82521405564515</v>
       </c>
       <c r="I21">
-        <v>19.78002979692166</v>
+        <v>4.459260246749254</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.020256345370697</v>
       </c>
       <c r="K21">
-        <v>14.61659427615501</v>
-      </c>
-      <c r="L21">
-        <v>9.452799895067219</v>
+        <v>7.829232976267761</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.95433586743128</v>
+        <v>32.55303550215444</v>
       </c>
       <c r="C22">
-        <v>7.399996341037762</v>
+        <v>25.69234156798376</v>
       </c>
       <c r="D22">
-        <v>5.068788106771209</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>5.590944534879311</v>
       </c>
       <c r="F22">
-        <v>28.11891765400769</v>
+        <v>17.68687924691166</v>
       </c>
       <c r="G22">
-        <v>39.3314196069345</v>
-      </c>
-      <c r="H22">
-        <v>11.85760884881447</v>
+        <v>21.64025466997866</v>
       </c>
       <c r="I22">
-        <v>19.94675282893665</v>
+        <v>4.634501688327202</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.021662124391852</v>
       </c>
       <c r="K22">
-        <v>15.11282833847909</v>
-      </c>
-      <c r="L22">
-        <v>9.703014312159182</v>
+        <v>7.516568888402944</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.59308067164922</v>
+        <v>31.96069924380258</v>
       </c>
       <c r="C23">
-        <v>7.342370969329143</v>
+        <v>25.219599050753</v>
       </c>
       <c r="D23">
-        <v>5.056448830016926</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>5.513518056050244</v>
       </c>
       <c r="F23">
-        <v>27.80351656429153</v>
+        <v>17.46221095318785</v>
       </c>
       <c r="G23">
-        <v>38.86255792334611</v>
-      </c>
-      <c r="H23">
-        <v>11.81327465649993</v>
+        <v>21.29836340074284</v>
       </c>
       <c r="I23">
-        <v>19.85616904537082</v>
+        <v>4.53935237609799</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.038850438510688</v>
       </c>
       <c r="K23">
-        <v>14.84967707679448</v>
-      </c>
-      <c r="L23">
-        <v>9.569669520101639</v>
+        <v>7.707697323041806</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.16963622134264</v>
+        <v>29.61708467620418</v>
       </c>
       <c r="C24">
-        <v>7.121043415096971</v>
+        <v>23.41693506597257</v>
       </c>
       <c r="D24">
-        <v>5.008828676867827</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>5.231039654611854</v>
       </c>
       <c r="F24">
-        <v>26.63253932382828</v>
+        <v>16.5627441396374</v>
       </c>
       <c r="G24">
-        <v>37.12576287229178</v>
-      </c>
-      <c r="H24">
-        <v>11.66358350676685</v>
+        <v>19.91681813382931</v>
       </c>
       <c r="I24">
-        <v>19.54749589756046</v>
+        <v>4.177978228341566</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.098481835697027</v>
       </c>
       <c r="K24">
-        <v>13.81550254767566</v>
-      </c>
-      <c r="L24">
-        <v>9.060484605114851</v>
+        <v>8.409035136542885</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.51324642570918</v>
+        <v>26.87379638497713</v>
       </c>
       <c r="C25">
-        <v>6.875799785175005</v>
+        <v>21.33013512358073</v>
       </c>
       <c r="D25">
-        <v>4.955686468184134</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>4.911989950735884</v>
       </c>
       <c r="F25">
-        <v>25.42163427938504</v>
+        <v>15.67698964941418</v>
       </c>
       <c r="G25">
-        <v>35.33771381103772</v>
-      </c>
-      <c r="H25">
-        <v>11.53838982997949</v>
+        <v>18.57451149345621</v>
       </c>
       <c r="I25">
-        <v>19.28314868695911</v>
+        <v>3.77970471325996</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.211500739680584</v>
       </c>
       <c r="K25">
-        <v>12.61860176140456</v>
-      </c>
-      <c r="L25">
-        <v>8.504052084864782</v>
+        <v>9.202323557790919</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,916 +421,1066 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.66718799605347</v>
+        <v>24.63777586927485</v>
       </c>
       <c r="C2">
-        <v>19.57012325420019</v>
+        <v>19.60630983597782</v>
       </c>
       <c r="D2">
-        <v>4.635744085829634</v>
+        <v>4.708554290521753</v>
       </c>
       <c r="F2">
-        <v>15.24944004738346</v>
+        <v>15.16482225267646</v>
       </c>
       <c r="G2">
-        <v>17.99373284995211</v>
+        <v>17.14060527556744</v>
       </c>
       <c r="I2">
-        <v>3.474014537559655</v>
+        <v>3.420166598106369</v>
       </c>
       <c r="J2">
-        <v>7.375761781790483</v>
+        <v>8.099354366981505</v>
       </c>
       <c r="K2">
-        <v>9.868305751907933</v>
+        <v>9.914031769259166</v>
+      </c>
+      <c r="L2">
+        <v>9.628062815320931</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>5.022684505975141</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.0518683133053</v>
+        <v>23.03836141245286</v>
       </c>
       <c r="C3">
-        <v>18.35248771874348</v>
+        <v>18.32177760902448</v>
       </c>
       <c r="D3">
-        <v>4.45849621672979</v>
+        <v>4.502920249760073</v>
       </c>
       <c r="F3">
-        <v>14.92111156030315</v>
+        <v>14.90791329397088</v>
       </c>
       <c r="G3">
-        <v>17.52979732339306</v>
+        <v>16.7675853248745</v>
       </c>
       <c r="I3">
-        <v>3.262353868181143</v>
+        <v>3.238172669341889</v>
       </c>
       <c r="J3">
-        <v>7.4791908296469</v>
+        <v>8.169287125345811</v>
       </c>
       <c r="K3">
-        <v>10.30327633098508</v>
+        <v>10.32023135941049</v>
+      </c>
+      <c r="L3">
+        <v>9.898494292008133</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>5.407207630908703</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.00092163654097</v>
+        <v>21.99746599652697</v>
       </c>
       <c r="C4">
-        <v>17.5681877372663</v>
+        <v>17.493096586379</v>
       </c>
       <c r="D4">
-        <v>4.347187656365428</v>
+        <v>4.373344702126248</v>
       </c>
       <c r="F4">
-        <v>14.73874145476351</v>
+        <v>14.76487924567983</v>
       </c>
       <c r="G4">
-        <v>17.2794414775193</v>
+        <v>16.57264550085017</v>
       </c>
       <c r="I4">
-        <v>3.129168787039693</v>
+        <v>3.123738145203296</v>
       </c>
       <c r="J4">
-        <v>7.5502100702115</v>
+        <v>8.215300423473664</v>
       </c>
       <c r="K4">
-        <v>10.57710498504827</v>
+        <v>10.57467227880165</v>
+      </c>
+      <c r="L4">
+        <v>10.07272190940346</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>5.66460749386729</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.55752423328626</v>
+        <v>21.55826433591784</v>
       </c>
       <c r="C5">
-        <v>17.25112486187157</v>
+        <v>17.15623151191059</v>
       </c>
       <c r="D5">
-        <v>4.304517671034143</v>
+        <v>4.322745150600993</v>
       </c>
       <c r="F5">
-        <v>14.65270115477289</v>
+        <v>14.69519008351475</v>
       </c>
       <c r="G5">
-        <v>17.15559548528207</v>
+        <v>16.47303341509413</v>
       </c>
       <c r="I5">
-        <v>3.074388373259443</v>
+        <v>3.076995120303855</v>
       </c>
       <c r="J5">
-        <v>7.576200396424931</v>
+        <v>8.230651204870574</v>
       </c>
       <c r="K5">
-        <v>10.68482166068059</v>
+        <v>10.67463263610007</v>
+      </c>
+      <c r="L5">
+        <v>10.14006696266083</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>5.773368310568212</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.48274260003182</v>
+        <v>21.48419432009262</v>
       </c>
       <c r="C6">
-        <v>17.212289641187</v>
+        <v>17.11296591984025</v>
       </c>
       <c r="D6">
-        <v>4.301408332404927</v>
+        <v>4.317949289146402</v>
       </c>
       <c r="F6">
-        <v>14.6185381277094</v>
+        <v>14.66551099952925</v>
       </c>
       <c r="G6">
-        <v>17.09844644075572</v>
+        <v>16.4222466446415</v>
       </c>
       <c r="I6">
-        <v>3.065822415553734</v>
+        <v>3.07012282701268</v>
       </c>
       <c r="J6">
-        <v>7.574854697899978</v>
+        <v>8.228196133574967</v>
       </c>
       <c r="K6">
-        <v>10.69606128588538</v>
+        <v>10.68522046587065</v>
+      </c>
+      <c r="L6">
+        <v>10.14446733190193</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>5.790455986574513</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.99432933734889</v>
+        <v>21.99055642924148</v>
       </c>
       <c r="C7">
-        <v>17.60232250710212</v>
+        <v>17.51305598632236</v>
       </c>
       <c r="D7">
-        <v>4.357465314824206</v>
+        <v>4.388824532075216</v>
       </c>
       <c r="F7">
-        <v>14.68284258041976</v>
+        <v>14.68486035498005</v>
       </c>
       <c r="G7">
-        <v>17.17711631657551</v>
+        <v>16.5467184325792</v>
       </c>
       <c r="I7">
-        <v>3.129695921938057</v>
+        <v>3.124534941328023</v>
       </c>
       <c r="J7">
-        <v>7.5347597344462</v>
+        <v>8.159841353744497</v>
       </c>
       <c r="K7">
-        <v>10.55998252224731</v>
+        <v>10.55294071039513</v>
+      </c>
+      <c r="L7">
+        <v>10.04807858234739</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>5.660220237552923</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.12165444091877</v>
+        <v>24.09650355487866</v>
       </c>
       <c r="C8">
-        <v>19.20504123050806</v>
+        <v>19.18143490090608</v>
       </c>
       <c r="D8">
-        <v>4.589066903439055</v>
+        <v>4.671197948683501</v>
       </c>
       <c r="F8">
-        <v>15.06173990599985</v>
+        <v>14.9142783213333</v>
       </c>
       <c r="G8">
-        <v>17.69748603000918</v>
+        <v>17.11072419065567</v>
       </c>
       <c r="I8">
-        <v>3.402878288251156</v>
+        <v>3.357985450253504</v>
       </c>
       <c r="J8">
-        <v>7.388701849513233</v>
+        <v>7.967180841025162</v>
       </c>
       <c r="K8">
-        <v>9.991788500779791</v>
+        <v>10.01075854213424</v>
+      </c>
+      <c r="L8">
+        <v>9.678677882129175</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>5.130164471138382</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.82789888111993</v>
+        <v>27.76362386380945</v>
       </c>
       <c r="C9">
-        <v>21.99545533880975</v>
+        <v>22.11916068260948</v>
       </c>
       <c r="D9">
-        <v>5.0035283576355</v>
+        <v>5.15625257030463</v>
       </c>
       <c r="F9">
-        <v>16.05368652055677</v>
+        <v>15.67988028874315</v>
       </c>
       <c r="G9">
-        <v>19.16839684885908</v>
+        <v>18.39597461082464</v>
       </c>
       <c r="I9">
-        <v>3.913071975260458</v>
+        <v>3.795482983857564</v>
       </c>
       <c r="J9">
-        <v>7.196463275342624</v>
+        <v>7.787623623442333</v>
       </c>
       <c r="K9">
-        <v>8.966171548567466</v>
+        <v>9.037616261992619</v>
+      </c>
+      <c r="L9">
+        <v>9.074092574533111</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>4.303160140362566</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.27052741120765</v>
+        <v>30.17555968601869</v>
       </c>
       <c r="C10">
-        <v>23.88494129332369</v>
+        <v>24.05013651941945</v>
       </c>
       <c r="D10">
-        <v>5.298398272032397</v>
+        <v>5.529198940980049</v>
       </c>
       <c r="F10">
-        <v>16.85257101901103</v>
+        <v>16.14839725285319</v>
       </c>
       <c r="G10">
-        <v>20.37347760962087</v>
+        <v>19.82690868338944</v>
       </c>
       <c r="I10">
-        <v>4.275532993572266</v>
+        <v>4.103674974329504</v>
       </c>
       <c r="J10">
-        <v>7.095990773843145</v>
+        <v>7.431281641897143</v>
       </c>
       <c r="K10">
-        <v>8.238488794850856</v>
+        <v>8.301716208595353</v>
+      </c>
+      <c r="L10">
+        <v>8.650306843403083</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>3.807428786424448</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.32120077833638</v>
+        <v>31.20917465259085</v>
       </c>
       <c r="C11">
-        <v>24.75261140059415</v>
+        <v>24.84671524639758</v>
       </c>
       <c r="D11">
-        <v>5.444269153950127</v>
+        <v>5.763273694609397</v>
       </c>
       <c r="F11">
-        <v>17.16148251303517</v>
+        <v>16.0514183526526</v>
       </c>
       <c r="G11">
-        <v>20.82527858557888</v>
+        <v>20.99462136828162</v>
       </c>
       <c r="I11">
-        <v>4.44013358632064</v>
+        <v>4.240108639311884</v>
       </c>
       <c r="J11">
-        <v>7.036432582208445</v>
+        <v>6.874601597427763</v>
       </c>
       <c r="K11">
-        <v>7.881191995361834</v>
+        <v>7.89063594635338</v>
+      </c>
+      <c r="L11">
+        <v>8.436254577051503</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>3.504135700634282</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.71099247640194</v>
+        <v>31.59214176071244</v>
       </c>
       <c r="C12">
-        <v>25.05039845851304</v>
+        <v>25.10985415807516</v>
       </c>
       <c r="D12">
-        <v>5.490762310100001</v>
+        <v>5.850344045259472</v>
       </c>
       <c r="F12">
-        <v>17.32239414320481</v>
+        <v>16.02350068863589</v>
       </c>
       <c r="G12">
-        <v>21.07432966309227</v>
+        <v>21.58282247371087</v>
       </c>
       <c r="I12">
-        <v>4.501077621417015</v>
+        <v>4.289117138661436</v>
       </c>
       <c r="J12">
-        <v>7.029964281881716</v>
+        <v>6.644129082969062</v>
       </c>
       <c r="K12">
-        <v>7.765403613383837</v>
+        <v>7.742113981525657</v>
+      </c>
+      <c r="L12">
+        <v>8.363934486378099</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>3.398367741016105</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.62750360465622</v>
+        <v>31.5101289585215</v>
       </c>
       <c r="C13">
-        <v>24.98153835237298</v>
+        <v>25.04928987265348</v>
       </c>
       <c r="D13">
-        <v>5.479142430953893</v>
+        <v>5.829824209681793</v>
       </c>
       <c r="F13">
-        <v>17.2956683141018</v>
+        <v>16.03803500400926</v>
       </c>
       <c r="G13">
-        <v>21.03470474022942</v>
+        <v>21.46110594002006</v>
       </c>
       <c r="I13">
-        <v>4.487702902300044</v>
+        <v>4.278153441745109</v>
       </c>
       <c r="J13">
-        <v>7.034097187833231</v>
+        <v>6.696461913280596</v>
       </c>
       <c r="K13">
-        <v>7.793992182741828</v>
+        <v>7.7765603411294</v>
+      </c>
+      <c r="L13">
+        <v>8.380302498052599</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>3.424957910552785</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.35347455041463</v>
+        <v>31.24089014279769</v>
       </c>
       <c r="C14">
-        <v>24.7750925625858</v>
+        <v>24.8667123485837</v>
       </c>
       <c r="D14">
-        <v>5.447408825849265</v>
+        <v>5.769677354651772</v>
       </c>
       <c r="F14">
-        <v>17.17810847985565</v>
+        <v>16.0527939576691</v>
       </c>
       <c r="G14">
-        <v>20.85176549079198</v>
+        <v>21.04659795594052</v>
       </c>
       <c r="I14">
-        <v>4.445036359538097</v>
+        <v>4.243961231756048</v>
       </c>
       <c r="J14">
-        <v>7.037062095994433</v>
+        <v>6.856892377140586</v>
       </c>
       <c r="K14">
-        <v>7.873202203830133</v>
+        <v>7.879496049227103</v>
+      </c>
+      <c r="L14">
+        <v>8.430677621449444</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>3.497040817540697</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.18435395703737</v>
+        <v>31.07467649239565</v>
       </c>
       <c r="C15">
-        <v>24.65786724725878</v>
+        <v>24.76204091973161</v>
       </c>
       <c r="D15">
-        <v>5.431144599775898</v>
+        <v>5.736590403107614</v>
       </c>
       <c r="F15">
-        <v>17.09040312739856</v>
+        <v>16.04366741740604</v>
       </c>
       <c r="G15">
-        <v>20.71186878580191</v>
+        <v>20.77629766147032</v>
       </c>
       <c r="I15">
-        <v>4.419455914831988</v>
+        <v>4.22388294727596</v>
       </c>
       <c r="J15">
-        <v>7.033570913655751</v>
+        <v>6.948125515676273</v>
       </c>
       <c r="K15">
-        <v>7.914725932132375</v>
+        <v>7.93725276605359</v>
+      </c>
+      <c r="L15">
+        <v>8.459756623790026</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>3.533562897445149</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.19923811632254</v>
+        <v>30.10544920515379</v>
       </c>
       <c r="C16">
-        <v>23.9129688955429</v>
+        <v>24.0745812436963</v>
       </c>
       <c r="D16">
-        <v>5.316435810468352</v>
+        <v>5.539985412234135</v>
       </c>
       <c r="F16">
-        <v>16.69493868365477</v>
+        <v>16.02654966003464</v>
       </c>
       <c r="G16">
-        <v>20.09916571987909</v>
+        <v>19.53720623951702</v>
       </c>
       <c r="I16">
-        <v>4.268844058273498</v>
+        <v>4.101590385449033</v>
       </c>
       <c r="J16">
-        <v>7.053173348466323</v>
+        <v>7.427222124025379</v>
       </c>
       <c r="K16">
-        <v>8.202116127802062</v>
+        <v>8.285791880788745</v>
+      </c>
+      <c r="L16">
+        <v>8.642158142232086</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>3.772567468624389</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.57966426764883</v>
+        <v>29.4949804942897</v>
       </c>
       <c r="C17">
-        <v>23.44646025289279</v>
+        <v>23.6256469991688</v>
       </c>
       <c r="D17">
-        <v>5.245145748926795</v>
+        <v>5.429731756341515</v>
       </c>
       <c r="F17">
-        <v>16.45760819018012</v>
+        <v>15.9663583053215</v>
       </c>
       <c r="G17">
-        <v>19.73221315761324</v>
+        <v>18.90947372198657</v>
       </c>
       <c r="I17">
-        <v>4.176024911140948</v>
+        <v>4.025223369488299</v>
       </c>
       <c r="J17">
-        <v>7.06880370797462</v>
+        <v>7.648954152046998</v>
       </c>
       <c r="K17">
-        <v>8.381268657768098</v>
+        <v>8.488975419153524</v>
+      </c>
+      <c r="L17">
+        <v>8.754338935350376</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>3.909846452314198</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.21811584403163</v>
+        <v>29.1383918793815</v>
       </c>
       <c r="C18">
-        <v>23.14793765087941</v>
+        <v>23.33280123901505</v>
       </c>
       <c r="D18">
-        <v>5.195278022781668</v>
+        <v>5.362281752366783</v>
       </c>
       <c r="F18">
-        <v>16.365755657435</v>
+        <v>15.9521904552912</v>
       </c>
       <c r="G18">
-        <v>19.60099085276389</v>
+        <v>18.66720391003764</v>
       </c>
       <c r="I18">
-        <v>4.120514217337822</v>
+        <v>3.977782925750677</v>
       </c>
       <c r="J18">
-        <v>7.093237818373893</v>
+        <v>7.758338303049406</v>
       </c>
       <c r="K18">
-        <v>8.502719203408578</v>
+        <v>8.614861687087208</v>
+      </c>
+      <c r="L18">
+        <v>8.825972669179455</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>4.001150276570024</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.0943927856232</v>
+        <v>29.01633059125786</v>
       </c>
       <c r="C19">
-        <v>23.06678811408393</v>
+        <v>23.25081257071998</v>
       </c>
       <c r="D19">
-        <v>5.184906722020052</v>
+        <v>5.34606099766914</v>
       </c>
       <c r="F19">
-        <v>16.30212486650758</v>
+        <v>15.91469239149238</v>
       </c>
       <c r="G19">
-        <v>19.49827866963393</v>
+        <v>18.5397748473133</v>
       </c>
       <c r="I19">
-        <v>4.103134799754008</v>
+        <v>3.963847530557107</v>
       </c>
       <c r="J19">
-        <v>7.090782890877658</v>
+        <v>7.781454491733747</v>
       </c>
       <c r="K19">
-        <v>8.530515167626932</v>
+        <v>8.646739847305954</v>
+      </c>
+      <c r="L19">
+        <v>8.844044268286261</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>4.020169948236658</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.64623490994229</v>
+        <v>29.56060454179596</v>
       </c>
       <c r="C20">
-        <v>23.49441537413238</v>
+        <v>23.67257326326089</v>
       </c>
       <c r="D20">
-        <v>5.25210423374062</v>
+        <v>5.440474204543411</v>
       </c>
       <c r="F20">
-        <v>16.48599072995789</v>
+        <v>15.97763194008825</v>
       </c>
       <c r="G20">
-        <v>19.77686663672458</v>
+        <v>18.97665808923957</v>
       </c>
       <c r="I20">
-        <v>4.185765676874141</v>
+        <v>4.033168531778393</v>
       </c>
       <c r="J20">
-        <v>7.068120836396457</v>
+        <v>7.629234124974873</v>
       </c>
       <c r="K20">
-        <v>8.363471113561909</v>
+        <v>8.468766841472084</v>
+      </c>
+      <c r="L20">
+        <v>8.743031088204615</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>3.896716987258879</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.4337279027163</v>
+        <v>31.31878159068918</v>
       </c>
       <c r="C21">
-        <v>24.86382749908996</v>
+        <v>24.9167036588</v>
       </c>
       <c r="D21">
-        <v>5.465908434118658</v>
+        <v>5.81544761335172</v>
       </c>
       <c r="F21">
-        <v>17.16722260317395</v>
+        <v>15.91485332269728</v>
       </c>
       <c r="G21">
-        <v>20.82521405564515</v>
+        <v>21.30935593458068</v>
       </c>
       <c r="I21">
-        <v>4.459260246749254</v>
+        <v>4.254903016131739</v>
       </c>
       <c r="J21">
-        <v>7.020256345370697</v>
+        <v>6.678607080947002</v>
       </c>
       <c r="K21">
-        <v>7.829232976267761</v>
+        <v>7.817708934818381</v>
+      </c>
+      <c r="L21">
+        <v>8.402023939926591</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>3.427345629891994</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.55303550215444</v>
+        <v>32.41865326661414</v>
       </c>
       <c r="C22">
-        <v>25.69234156798376</v>
+        <v>25.65866191077716</v>
       </c>
       <c r="D22">
-        <v>5.590944534879311</v>
+        <v>6.051698087868237</v>
       </c>
       <c r="F22">
-        <v>17.68687924691166</v>
+        <v>15.91616463040182</v>
       </c>
       <c r="G22">
-        <v>21.64025466997866</v>
+        <v>23.06406794011508</v>
       </c>
       <c r="I22">
-        <v>4.634501688327202</v>
+        <v>4.395547027638345</v>
       </c>
       <c r="J22">
-        <v>7.021662124391852</v>
+        <v>6.117725275631125</v>
       </c>
       <c r="K22">
-        <v>7.516568888402944</v>
+        <v>7.409194771074978</v>
+      </c>
+      <c r="L22">
+        <v>8.213120499951126</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>3.153150693569986</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.96069924380258</v>
+        <v>31.83732513768651</v>
       </c>
       <c r="C23">
-        <v>25.219599050753</v>
+        <v>25.25578591189325</v>
       </c>
       <c r="D23">
-        <v>5.513518056050244</v>
+        <v>5.901670744831811</v>
       </c>
       <c r="F23">
-        <v>17.46221095318785</v>
+        <v>16.02932006591703</v>
       </c>
       <c r="G23">
-        <v>21.29836340074284</v>
+        <v>22.05380022132013</v>
       </c>
       <c r="I23">
-        <v>4.53935237609799</v>
+        <v>4.318834836246121</v>
       </c>
       <c r="J23">
-        <v>7.038850438510688</v>
+        <v>6.497611917458373</v>
       </c>
       <c r="K23">
-        <v>7.707697323041806</v>
+        <v>7.654469657397904</v>
+      </c>
+      <c r="L23">
+        <v>8.321968601551131</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>3.343294281723653</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.61708467620418</v>
+        <v>29.53181327515281</v>
       </c>
       <c r="C24">
-        <v>23.41693506597257</v>
+        <v>23.60002440826387</v>
       </c>
       <c r="D24">
-        <v>5.231039654611854</v>
+        <v>5.419270233382216</v>
       </c>
       <c r="F24">
-        <v>16.5627441396374</v>
+        <v>16.05335344524616</v>
       </c>
       <c r="G24">
-        <v>19.91681813382931</v>
+        <v>19.09235701611206</v>
       </c>
       <c r="I24">
-        <v>4.177978228341566</v>
+        <v>4.024201729388634</v>
       </c>
       <c r="J24">
-        <v>7.098481835697027</v>
+        <v>7.661801128564695</v>
       </c>
       <c r="K24">
-        <v>8.409035136542885</v>
+        <v>8.50540291645089</v>
+      </c>
+      <c r="L24">
+        <v>8.76394032742971</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>3.935401900742223</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.87379638497713</v>
+        <v>26.82060447394371</v>
       </c>
       <c r="C25">
-        <v>21.33013512358073</v>
+        <v>21.42547334270327</v>
       </c>
       <c r="D25">
-        <v>4.911989950735884</v>
+        <v>5.036687216474139</v>
       </c>
       <c r="F25">
-        <v>15.67698964941418</v>
+        <v>15.41561777060099</v>
       </c>
       <c r="G25">
-        <v>18.57451149345621</v>
+        <v>17.77278166376346</v>
       </c>
       <c r="I25">
-        <v>3.77970471325996</v>
+        <v>3.68395041433993</v>
       </c>
       <c r="J25">
-        <v>7.211500739680584</v>
+        <v>7.868386060735546</v>
       </c>
       <c r="K25">
-        <v>9.202323557790919</v>
+        <v>9.278065228722191</v>
+      </c>
+      <c r="L25">
+        <v>9.216358067060487</v>
       </c>
       <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+        <v>4.485701195356382</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
